--- a/tests/test_parsing.xlsx
+++ b/tests/test_parsing.xlsx
@@ -1111,7 +1111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1247,68 +1247,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1322,7 +1264,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1368,41 +1310,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,9 +1530,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1907,9 +1819,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2478,7 +2393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O380"/>
+  <dimension ref="A1:O221"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2609,8 +2524,8 @@
         <v>601</v>
       </c>
       <c r="O4" s="11">
-        <f>SUM(N4,I4,I4,J4,K4,L4,M4)</f>
-        <v>2207</v>
+        <f>SUM(N4,,I4,J4,K4,L4,M4)</f>
+        <v>2106</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1">
@@ -2647,8 +2562,8 @@
         <v>602</v>
       </c>
       <c r="O5" s="11">
-        <f>SUM(N5,I5,I5,J5,K5,L5,M5)</f>
-        <v>2214</v>
+        <f>SUM(N5,,I5,J5,K5,L5,M5)</f>
+        <v>2112</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1">
@@ -2685,8 +2600,8 @@
         <v>603</v>
       </c>
       <c r="O6" s="11">
-        <f>SUM(N6,I6,I6,J6,K6,L6,M6)</f>
-        <v>2221</v>
+        <f>SUM(N6,,I6,J6,K6,L6,M6)</f>
+        <v>2118</v>
       </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
@@ -2723,8 +2638,8 @@
         <v>604</v>
       </c>
       <c r="O7" s="11">
-        <f>SUM(N7,I7,I7,J7,K7,L7,M7)</f>
-        <v>2228</v>
+        <f>SUM(N7,,I7,J7,K7,L7,M7)</f>
+        <v>2124</v>
       </c>
     </row>
     <row r="8" ht="13.65" customHeight="1">
@@ -2761,8 +2676,8 @@
         <v>605</v>
       </c>
       <c r="O8" s="11">
-        <f>SUM(N8,I8,I8,J8,K8,L8,M8)</f>
-        <v>2235</v>
+        <f>SUM(N8,,I8,J8,K8,L8,M8)</f>
+        <v>2130</v>
       </c>
     </row>
     <row r="9" ht="13.65" customHeight="1">
@@ -2799,8 +2714,8 @@
         <v>606</v>
       </c>
       <c r="O9" s="11">
-        <f>SUM(N9,I9,I9,J9,K9,L9,M9)</f>
-        <v>2242</v>
+        <f>SUM(N9,,I9,J9,K9,L9,M9)</f>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" ht="13.65" customHeight="1">
@@ -2837,8 +2752,8 @@
         <v>607</v>
       </c>
       <c r="O10" s="11">
-        <f>SUM(N10,I10,I10,J10,K10,L10,M10)</f>
-        <v>2249</v>
+        <f>SUM(N10,,I10,J10,K10,L10,M10)</f>
+        <v>2142</v>
       </c>
     </row>
     <row r="11" ht="13.65" customHeight="1">
@@ -2875,8 +2790,8 @@
         <v>608</v>
       </c>
       <c r="O11" s="11">
-        <f>SUM(N11,I11,I11,J11,K11,L11,M11)</f>
-        <v>2256</v>
+        <f>SUM(N11,,I11,J11,K11,L11,M11)</f>
+        <v>2148</v>
       </c>
     </row>
     <row r="12" ht="13.65" customHeight="1">
@@ -2913,8 +2828,8 @@
         <v>609</v>
       </c>
       <c r="O12" s="11">
-        <f>SUM(N12,I12,I12,J12,K12,L12,M12)</f>
-        <v>2263</v>
+        <f>SUM(N12,,I12,J12,K12,L12,M12)</f>
+        <v>2154</v>
       </c>
     </row>
     <row r="13" ht="13.65" customHeight="1">
@@ -2951,8 +2866,8 @@
         <v>610</v>
       </c>
       <c r="O13" s="11">
-        <f>SUM(N13,I13,I13,J13,K13,L13,M13)</f>
-        <v>2270</v>
+        <f>SUM(N13,,I13,J13,K13,L13,M13)</f>
+        <v>2160</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
@@ -2989,8 +2904,8 @@
         <v>611</v>
       </c>
       <c r="O14" s="11">
-        <f>SUM(N14,I14,I14,J14,K14,L14,M14)</f>
-        <v>2277</v>
+        <f>SUM(N14,,I14,J14,K14,L14,M14)</f>
+        <v>2166</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
@@ -3027,8 +2942,8 @@
         <v>612</v>
       </c>
       <c r="O15" s="11">
-        <f>SUM(N15,I15,I15,J15,K15,L15,M15)</f>
-        <v>2284</v>
+        <f>SUM(N15,,I15,J15,K15,L15,M15)</f>
+        <v>2172</v>
       </c>
     </row>
     <row r="16" ht="13.65" customHeight="1">
@@ -3065,8 +2980,8 @@
         <v>613</v>
       </c>
       <c r="O16" s="11">
-        <f>SUM(N16,I16,I16,J16,K16,L16,M16)</f>
-        <v>2291</v>
+        <f>SUM(N16,,I16,J16,K16,L16,M16)</f>
+        <v>2178</v>
       </c>
     </row>
     <row r="17" ht="13.65" customHeight="1">
@@ -3103,8 +3018,8 @@
         <v>614</v>
       </c>
       <c r="O17" s="11">
-        <f>SUM(N17,I17,I17,J17,K17,L17,M17)</f>
-        <v>2298</v>
+        <f>SUM(N17,,I17,J17,K17,L17,M17)</f>
+        <v>2184</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
@@ -3141,8 +3056,8 @@
         <v>615</v>
       </c>
       <c r="O18" s="11">
-        <f>SUM(N18,I18,I18,J18,K18,L18,M18)</f>
-        <v>2305</v>
+        <f>SUM(N18,,I18,J18,K18,L18,M18)</f>
+        <v>2190</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
@@ -3179,8 +3094,8 @@
         <v>616</v>
       </c>
       <c r="O19" s="11">
-        <f>SUM(N19,I19,I19,J19,K19,L19,M19)</f>
-        <v>2312</v>
+        <f>SUM(N19,,I19,J19,K19,L19,M19)</f>
+        <v>2196</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
@@ -3217,8 +3132,8 @@
         <v>617</v>
       </c>
       <c r="O20" s="11">
-        <f>SUM(N20,I20,I20,J20,K20,L20,M20)</f>
-        <v>2319</v>
+        <f>SUM(N20,,I20,J20,K20,L20,M20)</f>
+        <v>2202</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
@@ -3255,8 +3170,8 @@
         <v>618</v>
       </c>
       <c r="O21" s="11">
-        <f>SUM(N21,I21,I21,J21,K21,L21,M21)</f>
-        <v>2326</v>
+        <f>SUM(N21,,I21,J21,K21,L21,M21)</f>
+        <v>2208</v>
       </c>
     </row>
     <row r="22" ht="13.65" customHeight="1">
@@ -3293,8 +3208,8 @@
         <v>619</v>
       </c>
       <c r="O22" s="11">
-        <f>SUM(N22,I22,I22,J22,K22,L22,M22)</f>
-        <v>2333</v>
+        <f>SUM(N22,,I22,J22,K22,L22,M22)</f>
+        <v>2214</v>
       </c>
     </row>
     <row r="23" ht="13.65" customHeight="1">
@@ -3331,8 +3246,8 @@
         <v>620</v>
       </c>
       <c r="O23" s="11">
-        <f>SUM(N23,I23,I23,J23,K23,L23,M23)</f>
-        <v>2340</v>
+        <f>SUM(N23,,I23,J23,K23,L23,M23)</f>
+        <v>2220</v>
       </c>
     </row>
     <row r="24" ht="13.65" customHeight="1">
@@ -3369,8 +3284,8 @@
         <v>621</v>
       </c>
       <c r="O24" s="11">
-        <f>SUM(N24,I24,I24,J24,K24,L24,M24)</f>
-        <v>2347</v>
+        <f>SUM(N24,,I24,J24,K24,L24,M24)</f>
+        <v>2226</v>
       </c>
     </row>
     <row r="25" ht="13.65" customHeight="1">
@@ -3407,8 +3322,8 @@
         <v>622</v>
       </c>
       <c r="O25" s="11">
-        <f>SUM(N25,I25,I25,J25,K25,L25,M25)</f>
-        <v>2354</v>
+        <f>SUM(N25,,I25,J25,K25,L25,M25)</f>
+        <v>2232</v>
       </c>
     </row>
     <row r="26" ht="13.65" customHeight="1">
@@ -3445,8 +3360,8 @@
         <v>623</v>
       </c>
       <c r="O26" s="11">
-        <f>SUM(N26,I26,I26,J26,K26,L26,M26)</f>
-        <v>2361</v>
+        <f>SUM(N26,,I26,J26,K26,L26,M26)</f>
+        <v>2238</v>
       </c>
     </row>
     <row r="27" ht="13.65" customHeight="1">
@@ -3483,8 +3398,8 @@
         <v>624</v>
       </c>
       <c r="O27" s="11">
-        <f>SUM(N27,I27,I27,J27,K27,L27,M27)</f>
-        <v>2368</v>
+        <f>SUM(N27,,I27,J27,K27,L27,M27)</f>
+        <v>2244</v>
       </c>
     </row>
     <row r="28" ht="13.65" customHeight="1">
@@ -3521,8 +3436,8 @@
         <v>625</v>
       </c>
       <c r="O28" s="11">
-        <f>SUM(N28,I28,I28,J28,K28,L28,M28)</f>
-        <v>2375</v>
+        <f>SUM(N28,,I28,J28,K28,L28,M28)</f>
+        <v>2250</v>
       </c>
     </row>
     <row r="29" ht="13.65" customHeight="1">
@@ -3559,8 +3474,8 @@
         <v>626</v>
       </c>
       <c r="O29" s="11">
-        <f>SUM(N29,I29,I29,J29,K29,L29,M29)</f>
-        <v>2382</v>
+        <f>SUM(N29,,I29,J29,K29,L29,M29)</f>
+        <v>2256</v>
       </c>
     </row>
     <row r="30" ht="13.65" customHeight="1">
@@ -3597,8 +3512,8 @@
         <v>627</v>
       </c>
       <c r="O30" s="11">
-        <f>SUM(N30,I30,I30,J30,K30,L30,M30)</f>
-        <v>2389</v>
+        <f>SUM(N30,,I30,J30,K30,L30,M30)</f>
+        <v>2262</v>
       </c>
     </row>
     <row r="31" ht="13.65" customHeight="1">
@@ -3635,8 +3550,8 @@
         <v>628</v>
       </c>
       <c r="O31" s="11">
-        <f>SUM(N31,I31,I31,J31,K31,L31,M31)</f>
-        <v>2396</v>
+        <f>SUM(N31,,I31,J31,K31,L31,M31)</f>
+        <v>2268</v>
       </c>
     </row>
     <row r="32" ht="13.65" customHeight="1">
@@ -3673,8 +3588,8 @@
         <v>629</v>
       </c>
       <c r="O32" s="11">
-        <f>SUM(N32,I32,I32,J32,K32,L32,M32)</f>
-        <v>2403</v>
+        <f>SUM(N32,,I32,J32,K32,L32,M32)</f>
+        <v>2274</v>
       </c>
     </row>
     <row r="33" ht="13.65" customHeight="1">
@@ -3711,8 +3626,8 @@
         <v>630</v>
       </c>
       <c r="O33" s="11">
-        <f>SUM(N33,I33,I33,J33,K33,L33,M33)</f>
-        <v>2410</v>
+        <f>SUM(N33,,I33,J33,K33,L33,M33)</f>
+        <v>2280</v>
       </c>
     </row>
     <row r="34" ht="13.65" customHeight="1">
@@ -3749,8 +3664,8 @@
         <v>631</v>
       </c>
       <c r="O34" s="11">
-        <f>SUM(N34,I34,I34,J34,K34,L34,M34)</f>
-        <v>2417</v>
+        <f>SUM(N34,,I34,J34,K34,L34,M34)</f>
+        <v>2286</v>
       </c>
     </row>
     <row r="35" ht="13.65" customHeight="1">
@@ -3787,8 +3702,8 @@
         <v>632</v>
       </c>
       <c r="O35" s="11">
-        <f>SUM(N35,I35,I35,J35,K35,L35,M35)</f>
-        <v>2424</v>
+        <f>SUM(N35,,I35,J35,K35,L35,M35)</f>
+        <v>2292</v>
       </c>
     </row>
     <row r="36" ht="13.65" customHeight="1">
@@ -3825,8 +3740,8 @@
         <v>633</v>
       </c>
       <c r="O36" s="11">
-        <f>SUM(N36,I36,I36,J36,K36,L36,M36)</f>
-        <v>2431</v>
+        <f>SUM(N36,,I36,J36,K36,L36,M36)</f>
+        <v>2298</v>
       </c>
     </row>
     <row r="37" ht="13.65" customHeight="1">
@@ -3863,8 +3778,8 @@
         <v>634</v>
       </c>
       <c r="O37" s="11">
-        <f>SUM(N37,I37,I37,J37,K37,L37,M37)</f>
-        <v>2438</v>
+        <f>SUM(N37,,I37,J37,K37,L37,M37)</f>
+        <v>2304</v>
       </c>
     </row>
     <row r="38" ht="13.65" customHeight="1">
@@ -3901,8 +3816,8 @@
         <v>635</v>
       </c>
       <c r="O38" s="11">
-        <f>SUM(N38,I38,I38,J38,K38,L38,M38)</f>
-        <v>2445</v>
+        <f>SUM(N38,,I38,J38,K38,L38,M38)</f>
+        <v>2310</v>
       </c>
     </row>
     <row r="39" ht="13.65" customHeight="1">
@@ -3939,8 +3854,8 @@
         <v>636</v>
       </c>
       <c r="O39" s="11">
-        <f>SUM(N39,I39,I39,J39,K39,L39,M39)</f>
-        <v>2452</v>
+        <f>SUM(N39,,I39,J39,K39,L39,M39)</f>
+        <v>2316</v>
       </c>
     </row>
     <row r="40" ht="13.65" customHeight="1">
@@ -3977,8 +3892,8 @@
         <v>637</v>
       </c>
       <c r="O40" s="11">
-        <f>SUM(N40,I40,I40,J40,K40,L40,M40)</f>
-        <v>2459</v>
+        <f>SUM(N40,,I40,J40,K40,L40,M40)</f>
+        <v>2322</v>
       </c>
     </row>
     <row r="41" ht="13.65" customHeight="1">
@@ -4015,8 +3930,8 @@
         <v>638</v>
       </c>
       <c r="O41" s="11">
-        <f>SUM(N41,I41,I41,J41,K41,L41,M41)</f>
-        <v>2466</v>
+        <f>SUM(N41,,I41,J41,K41,L41,M41)</f>
+        <v>2328</v>
       </c>
     </row>
     <row r="42" ht="13.65" customHeight="1">
@@ -4053,8 +3968,8 @@
         <v>639</v>
       </c>
       <c r="O42" s="11">
-        <f>SUM(N42,I42,I42,J42,K42,L42,M42)</f>
-        <v>2473</v>
+        <f>SUM(N42,,I42,J42,K42,L42,M42)</f>
+        <v>2334</v>
       </c>
     </row>
     <row r="43" ht="13.65" customHeight="1">
@@ -4091,8 +4006,8 @@
         <v>640</v>
       </c>
       <c r="O43" s="11">
-        <f>SUM(N43,I43,I43,J43,K43,L43,M43)</f>
-        <v>2480</v>
+        <f>SUM(N43,,I43,J43,K43,L43,M43)</f>
+        <v>2340</v>
       </c>
     </row>
     <row r="44" ht="13.65" customHeight="1">
@@ -4129,7 +4044,7 @@
         <v>641</v>
       </c>
       <c r="O44" s="11">
-        <f>SUM(N44,I44,I44,J44,K44,L44,M44)</f>
+        <f>SUM(N44,,I44,J44,K44,L44,M44)</f>
         <v>2205</v>
       </c>
     </row>
@@ -4167,7 +4082,7 @@
         <v>642</v>
       </c>
       <c r="O45" s="11">
-        <f>SUM(N45,I45,I45,J45,K45,L45,M45)</f>
+        <f>SUM(N45,,I45,J45,K45,L45,M45)</f>
         <v>2210</v>
       </c>
     </row>
@@ -4205,7 +4120,7 @@
         <v>643</v>
       </c>
       <c r="O46" s="11">
-        <f>SUM(N46,I46,I46,J46,K46,L46,M46)</f>
+        <f>SUM(N46,,I46,J46,K46,L46,M46)</f>
         <v>2215</v>
       </c>
     </row>
@@ -4243,7 +4158,7 @@
         <v>644</v>
       </c>
       <c r="O47" s="11">
-        <f>SUM(N47,I47,I47,J47,K47,L47,M47)</f>
+        <f>SUM(N47,,I47,J47,K47,L47,M47)</f>
         <v>2220</v>
       </c>
     </row>
@@ -4281,7 +4196,7 @@
         <v>645</v>
       </c>
       <c r="O48" s="11">
-        <f>SUM(N48,I48,I48,J48,K48,L48,M48)</f>
+        <f>SUM(N48,,I48,J48,K48,L48,M48)</f>
         <v>2225</v>
       </c>
     </row>
@@ -4319,7 +4234,7 @@
         <v>646</v>
       </c>
       <c r="O49" s="11">
-        <f>SUM(N49,I49,I49,J49,K49,L49,M49)</f>
+        <f>SUM(N49,,I49,J49,K49,L49,M49)</f>
         <v>2230</v>
       </c>
     </row>
@@ -4357,7 +4272,7 @@
         <v>647</v>
       </c>
       <c r="O50" s="11">
-        <f>SUM(N50,I50,I50,J50,K50,L50,M50)</f>
+        <f>SUM(N50,,I50,J50,K50,L50,M50)</f>
         <v>2235</v>
       </c>
     </row>
@@ -4395,7 +4310,7 @@
         <v>648</v>
       </c>
       <c r="O51" s="11">
-        <f>SUM(N51,I51,I51,J51,K51,L51,M51)</f>
+        <f>SUM(N51,,I51,J51,K51,L51,M51)</f>
         <v>2240</v>
       </c>
     </row>
@@ -4433,7 +4348,7 @@
         <v>649</v>
       </c>
       <c r="O52" s="11">
-        <f>SUM(N52,I52,I52,J52,K52,L52,M52)</f>
+        <f>SUM(N52,,I52,J52,K52,L52,M52)</f>
         <v>2245</v>
       </c>
     </row>
@@ -4471,7 +4386,7 @@
         <v>650</v>
       </c>
       <c r="O53" s="11">
-        <f>SUM(N53,I53,I53,J53,K53,L53,M53)</f>
+        <f>SUM(N53,,I53,J53,K53,L53,M53)</f>
         <v>2250</v>
       </c>
     </row>
@@ -4509,7 +4424,7 @@
         <v>651</v>
       </c>
       <c r="O54" s="11">
-        <f>SUM(N54,I54,I54,J54,K54,L54,M54)</f>
+        <f>SUM(N54,,I54,J54,K54,L54,M54)</f>
         <v>2255</v>
       </c>
     </row>
@@ -4547,7 +4462,7 @@
         <v>652</v>
       </c>
       <c r="O55" s="11">
-        <f>SUM(N55,I55,I55,J55,K55,L55,M55)</f>
+        <f>SUM(N55,,I55,J55,K55,L55,M55)</f>
         <v>2260</v>
       </c>
     </row>
@@ -4585,7 +4500,7 @@
         <v>653</v>
       </c>
       <c r="O56" s="11">
-        <f>SUM(N56,I56,I56,J56,K56,L56,M56)</f>
+        <f>SUM(N56,,I56,J56,K56,L56,M56)</f>
         <v>2265</v>
       </c>
     </row>
@@ -4623,7 +4538,7 @@
         <v>654</v>
       </c>
       <c r="O57" s="11">
-        <f>SUM(N57,I57,I57,J57,K57,L57,M57)</f>
+        <f>SUM(N57,,I57,J57,K57,L57,M57)</f>
         <v>2270</v>
       </c>
     </row>
@@ -4661,7 +4576,7 @@
         <v>655</v>
       </c>
       <c r="O58" s="11">
-        <f>SUM(N58,I58,I58,J58,K58,L58,M58)</f>
+        <f>SUM(N58,,I58,J58,K58,L58,M58)</f>
         <v>2275</v>
       </c>
     </row>
@@ -4699,7 +4614,7 @@
         <v>656</v>
       </c>
       <c r="O59" s="11">
-        <f>SUM(N59,I59,I59,J59,K59,L59,M59)</f>
+        <f>SUM(N59,,I59,J59,K59,L59,M59)</f>
         <v>2280</v>
       </c>
     </row>
@@ -4737,7 +4652,7 @@
         <v>657</v>
       </c>
       <c r="O60" s="11">
-        <f>SUM(N60,I60,I60,J60,K60,L60,M60)</f>
+        <f>SUM(N60,,I60,J60,K60,L60,M60)</f>
         <v>2285</v>
       </c>
     </row>
@@ -4775,7 +4690,7 @@
         <v>658</v>
       </c>
       <c r="O61" s="11">
-        <f>SUM(N61,I61,I61,J61,K61,L61,M61)</f>
+        <f>SUM(N61,,I61,J61,K61,L61,M61)</f>
         <v>2290</v>
       </c>
     </row>
@@ -4813,7 +4728,7 @@
         <v>659</v>
       </c>
       <c r="O62" s="11">
-        <f>SUM(N62,I62,I62,J62,K62,L62,M62)</f>
+        <f>SUM(N62,,I62,J62,K62,L62,M62)</f>
         <v>2295</v>
       </c>
     </row>
@@ -4851,7 +4766,7 @@
         <v>660</v>
       </c>
       <c r="O63" s="11">
-        <f>SUM(N63,I63,I63,J63,K63,L63,M63)</f>
+        <f>SUM(N63,,I63,J63,K63,L63,M63)</f>
         <v>2300</v>
       </c>
     </row>
@@ -4889,7 +4804,7 @@
         <v>661</v>
       </c>
       <c r="O64" s="11">
-        <f>SUM(N64,I64,I64,J64,K64,L64,M64)</f>
+        <f>SUM(N64,,I64,J64,K64,L64,M64)</f>
         <v>2305</v>
       </c>
     </row>
@@ -4927,7 +4842,7 @@
         <v>662</v>
       </c>
       <c r="O65" s="11">
-        <f>SUM(N65,I65,I65,J65,K65,L65,M65)</f>
+        <f>SUM(N65,,I65,J65,K65,L65,M65)</f>
         <v>2310</v>
       </c>
     </row>
@@ -4965,7 +4880,7 @@
         <v>663</v>
       </c>
       <c r="O66" s="11">
-        <f>SUM(N66,I66,I66,J66,K66,L66,M66)</f>
+        <f>SUM(N66,,I66,J66,K66,L66,M66)</f>
         <v>2315</v>
       </c>
     </row>
@@ -5003,7 +4918,7 @@
         <v>664</v>
       </c>
       <c r="O67" s="11">
-        <f>SUM(N67,I67,I67,J67,K67,L67,M67)</f>
+        <f>SUM(N67,,I67,J67,K67,L67,M67)</f>
         <v>2320</v>
       </c>
     </row>
@@ -5041,7 +4956,7 @@
         <v>665</v>
       </c>
       <c r="O68" s="11">
-        <f>SUM(N68,I68,I68,J68,K68,L68,M68)</f>
+        <f>SUM(N68,,I68,J68,K68,L68,M68)</f>
         <v>2325</v>
       </c>
     </row>
@@ -5079,7 +4994,7 @@
         <v>666</v>
       </c>
       <c r="O69" s="11">
-        <f>SUM(N69,I69,I69,J69,K69,L69,M69)</f>
+        <f>SUM(N69,,I69,J69,K69,L69,M69)</f>
         <v>2330</v>
       </c>
     </row>
@@ -5117,7 +5032,7 @@
         <v>667</v>
       </c>
       <c r="O70" s="11">
-        <f>SUM(N70,I70,I70,J70,K70,L70,M70)</f>
+        <f>SUM(N70,,I70,J70,K70,L70,M70)</f>
         <v>2335</v>
       </c>
     </row>
@@ -5155,7 +5070,7 @@
         <v>668</v>
       </c>
       <c r="O71" s="11">
-        <f>SUM(N71,I71,I71,J71,K71,L71,M71)</f>
+        <f>SUM(N71,,I71,J71,K71,L71,M71)</f>
         <v>2340</v>
       </c>
     </row>
@@ -5193,7 +5108,7 @@
         <v>669</v>
       </c>
       <c r="O72" s="11">
-        <f>SUM(N72,I72,I72,J72,K72,L72,M72)</f>
+        <f>SUM(N72,,I72,J72,K72,L72,M72)</f>
         <v>2345</v>
       </c>
     </row>
@@ -5231,7 +5146,7 @@
         <v>670</v>
       </c>
       <c r="O73" s="11">
-        <f>SUM(N73,I73,I73,J73,K73,L73,M73)</f>
+        <f>SUM(N73,,I73,J73,K73,L73,M73)</f>
         <v>2350</v>
       </c>
     </row>
@@ -5269,7 +5184,7 @@
         <v>671</v>
       </c>
       <c r="O74" s="11">
-        <f>SUM(N74,I74,I74,J74,K74,L74,M74)</f>
+        <f>SUM(N74,,I74,J74,K74,L74,M74)</f>
         <v>2355</v>
       </c>
     </row>
@@ -5307,7 +5222,7 @@
         <v>672</v>
       </c>
       <c r="O75" s="11">
-        <f>SUM(N75,I75,I75,J75,K75,L75,M75)</f>
+        <f>SUM(N75,,I75,J75,K75,L75,M75)</f>
         <v>2360</v>
       </c>
     </row>
@@ -5345,7 +5260,7 @@
         <v>673</v>
       </c>
       <c r="O76" s="11">
-        <f>SUM(N76,I76,I76,J76,K76,L76,M76)</f>
+        <f>SUM(N76,,I76,J76,K76,L76,M76)</f>
         <v>2365</v>
       </c>
     </row>
@@ -5383,7 +5298,7 @@
         <v>674</v>
       </c>
       <c r="O77" s="11">
-        <f>SUM(N77,I77,I77,J77,K77,L77,M77)</f>
+        <f>SUM(N77,,I77,J77,K77,L77,M77)</f>
         <v>2370</v>
       </c>
     </row>
@@ -5421,8 +5336,8 @@
         <v>675</v>
       </c>
       <c r="O78" s="11">
-        <f>SUM(N78,I78,I78,J78,K78,L78,M78)</f>
-        <v>2725</v>
+        <f>SUM(N78,,I78,J78,K78,L78,M78)</f>
+        <v>2550</v>
       </c>
     </row>
     <row r="79" ht="13.65" customHeight="1">
@@ -5459,8 +5374,8 @@
         <v>676</v>
       </c>
       <c r="O79" s="11">
-        <f>SUM(N79,I79,I79,J79,K79,L79,M79)</f>
-        <v>2732</v>
+        <f>SUM(N79,,I79,J79,K79,L79,M79)</f>
+        <v>2556</v>
       </c>
     </row>
     <row r="80" ht="13.65" customHeight="1">
@@ -5497,8 +5412,8 @@
         <v>677</v>
       </c>
       <c r="O80" s="11">
-        <f>SUM(N80,I80,I80,J80,K80,L80,M80)</f>
-        <v>2739</v>
+        <f>SUM(N80,,I80,J80,K80,L80,M80)</f>
+        <v>2562</v>
       </c>
     </row>
     <row r="81" ht="13.65" customHeight="1">
@@ -5535,8 +5450,8 @@
         <v>678</v>
       </c>
       <c r="O81" s="11">
-        <f>SUM(N81,I81,I81,J81,K81,L81,M81)</f>
-        <v>2746</v>
+        <f>SUM(N81,,I81,J81,K81,L81,M81)</f>
+        <v>2568</v>
       </c>
     </row>
     <row r="82" ht="13.65" customHeight="1">
@@ -5573,8 +5488,8 @@
         <v>679</v>
       </c>
       <c r="O82" s="11">
-        <f>SUM(N82,I82,I82,J82,K82,L82,M82)</f>
-        <v>2753</v>
+        <f>SUM(N82,,I82,J82,K82,L82,M82)</f>
+        <v>2574</v>
       </c>
     </row>
     <row r="83" ht="13.65" customHeight="1">
@@ -5611,8 +5526,8 @@
         <v>680</v>
       </c>
       <c r="O83" s="11">
-        <f>SUM(N83,I83,I83,J83,K83,L83,M83)</f>
-        <v>2760</v>
+        <f>SUM(N83,,I83,J83,K83,L83,M83)</f>
+        <v>2580</v>
       </c>
     </row>
     <row r="84" ht="13.65" customHeight="1">
@@ -5649,8 +5564,8 @@
         <v>681</v>
       </c>
       <c r="O84" s="11">
-        <f>SUM(N84,I84,I84,J84,K84,L84,M84)</f>
-        <v>2767</v>
+        <f>SUM(N84,,I84,J84,K84,L84,M84)</f>
+        <v>2586</v>
       </c>
     </row>
     <row r="85" ht="13.65" customHeight="1">
@@ -5687,8 +5602,8 @@
         <v>682</v>
       </c>
       <c r="O85" s="11">
-        <f>SUM(N85,I85,I85,J85,K85,L85,M85)</f>
-        <v>2774</v>
+        <f>SUM(N85,,I85,J85,K85,L85,M85)</f>
+        <v>2592</v>
       </c>
     </row>
     <row r="86" ht="13.65" customHeight="1">
@@ -5725,8 +5640,8 @@
         <v>683</v>
       </c>
       <c r="O86" s="11">
-        <f>SUM(N86,I86,I86,J86,K86,L86,M86)</f>
-        <v>2781</v>
+        <f>SUM(N86,,I86,J86,K86,L86,M86)</f>
+        <v>2598</v>
       </c>
     </row>
     <row r="87" ht="13.65" customHeight="1">
@@ -5763,8 +5678,8 @@
         <v>684</v>
       </c>
       <c r="O87" s="11">
-        <f>SUM(N87,I87,I87,J87,K87,L87,M87)</f>
-        <v>2788</v>
+        <f>SUM(N87,,I87,J87,K87,L87,M87)</f>
+        <v>2604</v>
       </c>
     </row>
     <row r="88" ht="13.65" customHeight="1">
@@ -5801,8 +5716,8 @@
         <v>685</v>
       </c>
       <c r="O88" s="11">
-        <f>SUM(N88,I88,I88,J88,K88,L88,M88)</f>
-        <v>2795</v>
+        <f>SUM(N88,,I88,J88,K88,L88,M88)</f>
+        <v>2610</v>
       </c>
     </row>
     <row r="89" ht="13.65" customHeight="1">
@@ -5839,8 +5754,8 @@
         <v>686</v>
       </c>
       <c r="O89" s="11">
-        <f>SUM(N89,I89,I89,J89,K89,L89,M89)</f>
-        <v>2802</v>
+        <f>SUM(N89,,I89,J89,K89,L89,M89)</f>
+        <v>2616</v>
       </c>
     </row>
     <row r="90" ht="13.65" customHeight="1">
@@ -5877,8 +5792,8 @@
         <v>687</v>
       </c>
       <c r="O90" s="11">
-        <f>SUM(N90,I90,I90,J90,K90,L90,M90)</f>
-        <v>2809</v>
+        <f>SUM(N90,,I90,J90,K90,L90,M90)</f>
+        <v>2622</v>
       </c>
     </row>
     <row r="91" ht="13.65" customHeight="1">
@@ -5915,8 +5830,8 @@
         <v>688</v>
       </c>
       <c r="O91" s="11">
-        <f>SUM(N91,I91,I91,J91,K91,L91,M91)</f>
-        <v>2816</v>
+        <f>SUM(N91,,I91,J91,K91,L91,M91)</f>
+        <v>2628</v>
       </c>
     </row>
     <row r="92" ht="13.65" customHeight="1">
@@ -5953,8 +5868,8 @@
         <v>689</v>
       </c>
       <c r="O92" s="11">
-        <f>SUM(N92,I92,I92,J92,K92,L92,M92)</f>
-        <v>2823</v>
+        <f>SUM(N92,,I92,J92,K92,L92,M92)</f>
+        <v>2634</v>
       </c>
     </row>
     <row r="93" ht="13.65" customHeight="1">
@@ -5991,8 +5906,8 @@
         <v>690</v>
       </c>
       <c r="O93" s="11">
-        <f>SUM(N93,I93,I93,J93,K93,L93,M93)</f>
-        <v>2830</v>
+        <f>SUM(N93,,I93,J93,K93,L93,M93)</f>
+        <v>2640</v>
       </c>
     </row>
     <row r="94" ht="13.65" customHeight="1">
@@ -6029,8 +5944,8 @@
         <v>691</v>
       </c>
       <c r="O94" s="11">
-        <f>SUM(N94,I94,I94,J94,K94,L94,M94)</f>
-        <v>2837</v>
+        <f>SUM(N94,,I94,J94,K94,L94,M94)</f>
+        <v>2646</v>
       </c>
     </row>
     <row r="95" ht="13.65" customHeight="1">
@@ -6067,8 +5982,8 @@
         <v>692</v>
       </c>
       <c r="O95" s="11">
-        <f>SUM(N95,I95,I95,J95,K95,L95,M95)</f>
-        <v>2844</v>
+        <f>SUM(N95,,I95,J95,K95,L95,M95)</f>
+        <v>2652</v>
       </c>
     </row>
     <row r="96" ht="13.65" customHeight="1">
@@ -6105,8 +6020,8 @@
         <v>693</v>
       </c>
       <c r="O96" s="11">
-        <f>SUM(N96,I96,I96,J96,K96,L96,M96)</f>
-        <v>2851</v>
+        <f>SUM(N96,,I96,J96,K96,L96,M96)</f>
+        <v>2658</v>
       </c>
     </row>
     <row r="97" ht="13.65" customHeight="1">
@@ -6143,8 +6058,8 @@
         <v>694</v>
       </c>
       <c r="O97" s="11">
-        <f>SUM(N97,I97,I97,J97,K97,L97,M97)</f>
-        <v>2464</v>
+        <f>SUM(N97,,I97,J97,K97,L97,M97)</f>
+        <v>2270</v>
       </c>
     </row>
     <row r="98" ht="13.65" customHeight="1">
@@ -6181,8 +6096,8 @@
         <v>695</v>
       </c>
       <c r="O98" s="11">
-        <f>SUM(N98,I98,I98,J98,K98,L98,M98)</f>
-        <v>2470</v>
+        <f>SUM(N98,,I98,J98,K98,L98,M98)</f>
+        <v>2275</v>
       </c>
     </row>
     <row r="99" ht="13.65" customHeight="1">
@@ -6219,8 +6134,8 @@
         <v>696</v>
       </c>
       <c r="O99" s="11">
-        <f>SUM(N99,I99,I99,J99,K99,L99,M99)</f>
-        <v>2476</v>
+        <f>SUM(N99,,I99,J99,K99,L99,M99)</f>
+        <v>2280</v>
       </c>
     </row>
     <row r="100" ht="13.65" customHeight="1">
@@ -6257,8 +6172,8 @@
         <v>697</v>
       </c>
       <c r="O100" s="11">
-        <f>SUM(N100,I100,I100,J100,K100,L100,M100)</f>
-        <v>2482</v>
+        <f>SUM(N100,,I100,J100,K100,L100,M100)</f>
+        <v>2285</v>
       </c>
     </row>
     <row r="101" ht="13.65" customHeight="1">
@@ -6295,8 +6210,8 @@
         <v>698</v>
       </c>
       <c r="O101" s="11">
-        <f>SUM(N101,I101,I101,J101,K101,L101,M101)</f>
-        <v>2488</v>
+        <f>SUM(N101,,I101,J101,K101,L101,M101)</f>
+        <v>2290</v>
       </c>
     </row>
     <row r="102" ht="13.65" customHeight="1">
@@ -6333,8 +6248,8 @@
         <v>699</v>
       </c>
       <c r="O102" s="11">
-        <f>SUM(N102,I102,I102,J102,K102,L102,M102)</f>
-        <v>2494</v>
+        <f>SUM(N102,,I102,J102,K102,L102,M102)</f>
+        <v>2295</v>
       </c>
     </row>
     <row r="103" ht="13.65" customHeight="1">
@@ -6371,8 +6286,8 @@
         <v>700</v>
       </c>
       <c r="O103" s="11">
-        <f>SUM(N103,I103,I103,J103,K103,L103,M103)</f>
-        <v>2500</v>
+        <f>SUM(N103,,I103,J103,K103,L103,M103)</f>
+        <v>2300</v>
       </c>
     </row>
     <row r="104" ht="13.65" customHeight="1">
@@ -6409,8 +6324,8 @@
         <v>701</v>
       </c>
       <c r="O104" s="11">
-        <f>SUM(N104,I104,I104,J104,K104,L104,M104)</f>
-        <v>2506</v>
+        <f>SUM(N104,,I104,J104,K104,L104,M104)</f>
+        <v>2305</v>
       </c>
     </row>
     <row r="105" ht="13.65" customHeight="1">
@@ -6447,8 +6362,8 @@
         <v>702</v>
       </c>
       <c r="O105" s="11">
-        <f>SUM(N105,I105,I105,J105,K105,L105,M105)</f>
-        <v>2512</v>
+        <f>SUM(N105,,I105,J105,K105,L105,M105)</f>
+        <v>2310</v>
       </c>
     </row>
     <row r="106" ht="13.65" customHeight="1">
@@ -6485,8 +6400,8 @@
         <v>703</v>
       </c>
       <c r="O106" s="11">
-        <f>SUM(N106,I106,I106,J106,K106,L106,M106)</f>
-        <v>2518</v>
+        <f>SUM(N106,,I106,J106,K106,L106,M106)</f>
+        <v>2315</v>
       </c>
     </row>
     <row r="107" ht="13.65" customHeight="1">
@@ -6523,8 +6438,8 @@
         <v>704</v>
       </c>
       <c r="O107" s="11">
-        <f>SUM(N107,I107,I107,J107,K107,L107,M107)</f>
-        <v>2524</v>
+        <f>SUM(N107,,I107,J107,K107,L107,M107)</f>
+        <v>2320</v>
       </c>
     </row>
     <row r="108" ht="13.65" customHeight="1">
@@ -6561,8 +6476,8 @@
         <v>705</v>
       </c>
       <c r="O108" s="11">
-        <f>SUM(N108,I108,I108,J108,K108,L108,M108)</f>
-        <v>2530</v>
+        <f>SUM(N108,,I108,J108,K108,L108,M108)</f>
+        <v>2325</v>
       </c>
     </row>
     <row r="109" ht="13.65" customHeight="1">
@@ -6599,8 +6514,8 @@
         <v>706</v>
       </c>
       <c r="O109" s="11">
-        <f>SUM(N109,I109,I109,J109,K109,L109,M109)</f>
-        <v>2536</v>
+        <f>SUM(N109,,I109,J109,K109,L109,M109)</f>
+        <v>2330</v>
       </c>
     </row>
     <row r="110" ht="13.65" customHeight="1">
@@ -6637,8 +6552,8 @@
         <v>707</v>
       </c>
       <c r="O110" s="11">
-        <f>SUM(N110,I110,I110,J110,K110,L110,M110)</f>
-        <v>2542</v>
+        <f>SUM(N110,,I110,J110,K110,L110,M110)</f>
+        <v>2335</v>
       </c>
     </row>
     <row r="111" ht="13.65" customHeight="1">
@@ -6675,8 +6590,8 @@
         <v>708</v>
       </c>
       <c r="O111" s="11">
-        <f>SUM(N111,I111,I111,J111,K111,L111,M111)</f>
-        <v>2548</v>
+        <f>SUM(N111,,I111,J111,K111,L111,M111)</f>
+        <v>2340</v>
       </c>
     </row>
     <row r="112" ht="13.65" customHeight="1">
@@ -6713,8 +6628,8 @@
         <v>709</v>
       </c>
       <c r="O112" s="11">
-        <f>SUM(N112,I112,I112,J112,K112,L112,M112)</f>
-        <v>2554</v>
+        <f>SUM(N112,,I112,J112,K112,L112,M112)</f>
+        <v>2345</v>
       </c>
     </row>
     <row r="113" ht="13.65" customHeight="1">
@@ -6751,8 +6666,8 @@
         <v>710</v>
       </c>
       <c r="O113" s="11">
-        <f>SUM(N113,I113,I113,J113,K113,L113,M113)</f>
-        <v>2560</v>
+        <f>SUM(N113,,I113,J113,K113,L113,M113)</f>
+        <v>2350</v>
       </c>
     </row>
     <row r="114" ht="13.65" customHeight="1">
@@ -6789,8 +6704,8 @@
         <v>711</v>
       </c>
       <c r="O114" s="11">
-        <f>SUM(N114,I114,I114,J114,K114,L114,M114)</f>
-        <v>2566</v>
+        <f>SUM(N114,,I114,J114,K114,L114,M114)</f>
+        <v>2355</v>
       </c>
     </row>
     <row r="115" ht="13.65" customHeight="1">
@@ -6827,8 +6742,8 @@
         <v>712</v>
       </c>
       <c r="O115" s="11">
-        <f>SUM(N115,I115,I115,J115,K115,L115,M115)</f>
-        <v>2572</v>
+        <f>SUM(N115,,I115,J115,K115,L115,M115)</f>
+        <v>2360</v>
       </c>
     </row>
     <row r="116" ht="13.65" customHeight="1">
@@ -6865,8 +6780,8 @@
         <v>713</v>
       </c>
       <c r="O116" s="11">
-        <f>SUM(N116,I116,I116,J116,K116,L116,M116)</f>
-        <v>2578</v>
+        <f>SUM(N116,,I116,J116,K116,L116,M116)</f>
+        <v>2365</v>
       </c>
     </row>
     <row r="117" ht="13.65" customHeight="1">
@@ -6903,8 +6818,8 @@
         <v>714</v>
       </c>
       <c r="O117" s="11">
-        <f>SUM(N117,I117,I117,J117,K117,L117,M117)</f>
-        <v>2584</v>
+        <f>SUM(N117,,I117,J117,K117,L117,M117)</f>
+        <v>2370</v>
       </c>
     </row>
     <row r="118" ht="13.65" customHeight="1">
@@ -6941,8 +6856,8 @@
         <v>715</v>
       </c>
       <c r="O118" s="11">
-        <f>SUM(N118,I118,I118,J118,K118,L118,M118)</f>
-        <v>2590</v>
+        <f>SUM(N118,,I118,J118,K118,L118,M118)</f>
+        <v>2375</v>
       </c>
     </row>
     <row r="119" ht="13.65" customHeight="1">
@@ -6979,8 +6894,8 @@
         <v>716</v>
       </c>
       <c r="O119" s="11">
-        <f>SUM(N119,I119,I119,J119,K119,L119,M119)</f>
-        <v>2596</v>
+        <f>SUM(N119,,I119,J119,K119,L119,M119)</f>
+        <v>2380</v>
       </c>
     </row>
     <row r="120" ht="13.65" customHeight="1">
@@ -7017,8 +6932,8 @@
         <v>717</v>
       </c>
       <c r="O120" s="11">
-        <f>SUM(N120,I120,I120,J120,K120,L120,M120)</f>
-        <v>2602</v>
+        <f>SUM(N120,,I120,J120,K120,L120,M120)</f>
+        <v>2385</v>
       </c>
     </row>
     <row r="121" ht="13.65" customHeight="1">
@@ -7055,8 +6970,8 @@
         <v>718</v>
       </c>
       <c r="O121" s="11">
-        <f>SUM(N121,I121,I121,J121,K121,L121,M121)</f>
-        <v>2608</v>
+        <f>SUM(N121,,I121,J121,K121,L121,M121)</f>
+        <v>2390</v>
       </c>
     </row>
     <row r="122" ht="13.65" customHeight="1">
@@ -7093,8 +7008,8 @@
         <v>719</v>
       </c>
       <c r="O122" s="11">
-        <f>SUM(N122,I122,I122,J122,K122,L122,M122)</f>
-        <v>2614</v>
+        <f>SUM(N122,,I122,J122,K122,L122,M122)</f>
+        <v>2395</v>
       </c>
     </row>
     <row r="123" ht="13.65" customHeight="1">
@@ -7131,8 +7046,8 @@
         <v>720</v>
       </c>
       <c r="O123" s="11">
-        <f>SUM(N123,I123,I123,J123,K123,L123,M123)</f>
-        <v>2620</v>
+        <f>SUM(N123,,I123,J123,K123,L123,M123)</f>
+        <v>2400</v>
       </c>
     </row>
     <row r="124" ht="13.65" customHeight="1">
@@ -7169,8 +7084,8 @@
         <v>721</v>
       </c>
       <c r="O124" s="11">
-        <f>SUM(N124,I124,I124,J124,K124,L124,M124)</f>
-        <v>2626</v>
+        <f>SUM(N124,,I124,J124,K124,L124,M124)</f>
+        <v>2405</v>
       </c>
     </row>
     <row r="125" ht="13.65" customHeight="1">
@@ -7207,8 +7122,8 @@
         <v>722</v>
       </c>
       <c r="O125" s="11">
-        <f>SUM(N125,I125,I125,J125,K125,L125,M125)</f>
-        <v>2632</v>
+        <f>SUM(N125,,I125,J125,K125,L125,M125)</f>
+        <v>2410</v>
       </c>
     </row>
     <row r="126" ht="13.65" customHeight="1">
@@ -7245,8 +7160,8 @@
         <v>723</v>
       </c>
       <c r="O126" s="11">
-        <f>SUM(N126,I126,I126,J126,K126,L126,M126)</f>
-        <v>2638</v>
+        <f>SUM(N126,,I126,J126,K126,L126,M126)</f>
+        <v>2415</v>
       </c>
     </row>
     <row r="127" ht="13.65" customHeight="1">
@@ -7283,8 +7198,8 @@
         <v>724</v>
       </c>
       <c r="O127" s="11">
-        <f>SUM(N127,I127,I127,J127,K127,L127,M127)</f>
-        <v>3068</v>
+        <f>SUM(N127,,I127,J127,K127,L127,M127)</f>
+        <v>2844</v>
       </c>
     </row>
     <row r="128" ht="13.65" customHeight="1">
@@ -7321,8 +7236,8 @@
         <v>725</v>
       </c>
       <c r="O128" s="11">
-        <f>SUM(N128,I128,I128,J128,K128,L128,M128)</f>
-        <v>3075</v>
+        <f>SUM(N128,,I128,J128,K128,L128,M128)</f>
+        <v>2850</v>
       </c>
     </row>
     <row r="129" ht="13.65" customHeight="1">
@@ -7359,8 +7274,8 @@
         <v>726</v>
       </c>
       <c r="O129" s="11">
-        <f>SUM(N129,I129,I129,J129,K129,L129,M129)</f>
-        <v>3082</v>
+        <f>SUM(N129,,I129,J129,K129,L129,M129)</f>
+        <v>2856</v>
       </c>
     </row>
     <row r="130" ht="13.65" customHeight="1">
@@ -7397,8 +7312,8 @@
         <v>727</v>
       </c>
       <c r="O130" s="11">
-        <f>SUM(N130,I130,I130,J130,K130,L130,M130)</f>
-        <v>3089</v>
+        <f>SUM(N130,,I130,J130,K130,L130,M130)</f>
+        <v>2862</v>
       </c>
     </row>
     <row r="131" ht="13.65" customHeight="1">
@@ -7435,8 +7350,8 @@
         <v>728</v>
       </c>
       <c r="O131" s="11">
-        <f>SUM(N131,I131,I131,J131,K131,L131,M131)</f>
-        <v>3096</v>
+        <f>SUM(N131,,I131,J131,K131,L131,M131)</f>
+        <v>2868</v>
       </c>
     </row>
     <row r="132" ht="13.65" customHeight="1">
@@ -7473,8 +7388,8 @@
         <v>729</v>
       </c>
       <c r="O132" s="11">
-        <f>SUM(N132,I132,I132,J132,K132,L132,M132)</f>
-        <v>3103</v>
+        <f>SUM(N132,,I132,J132,K132,L132,M132)</f>
+        <v>2874</v>
       </c>
     </row>
     <row r="133" ht="13.65" customHeight="1">
@@ -7511,8 +7426,8 @@
         <v>730</v>
       </c>
       <c r="O133" s="11">
-        <f>SUM(N133,I133,I133,J133,K133,L133,M133)</f>
-        <v>3110</v>
+        <f>SUM(N133,,I133,J133,K133,L133,M133)</f>
+        <v>2880</v>
       </c>
     </row>
     <row r="134" ht="13.65" customHeight="1">
@@ -7549,8 +7464,8 @@
         <v>731</v>
       </c>
       <c r="O134" s="11">
-        <f>SUM(N134,I134,I134,J134,K134,L134,M134)</f>
-        <v>3117</v>
+        <f>SUM(N134,,I134,J134,K134,L134,M134)</f>
+        <v>2886</v>
       </c>
     </row>
     <row r="135" ht="13.65" customHeight="1">
@@ -7587,8 +7502,8 @@
         <v>732</v>
       </c>
       <c r="O135" s="11">
-        <f>SUM(N135,I135,I135,J135,K135,L135,M135)</f>
-        <v>3124</v>
+        <f>SUM(N135,,I135,J135,K135,L135,M135)</f>
+        <v>2892</v>
       </c>
     </row>
     <row r="136" ht="13.65" customHeight="1">
@@ -7625,8 +7540,8 @@
         <v>733</v>
       </c>
       <c r="O136" s="11">
-        <f>SUM(N136,I136,I136,J136,K136,L136,M136)</f>
-        <v>3131</v>
+        <f>SUM(N136,,I136,J136,K136,L136,M136)</f>
+        <v>2898</v>
       </c>
     </row>
     <row r="137" ht="13.65" customHeight="1">
@@ -7663,8 +7578,8 @@
         <v>734</v>
       </c>
       <c r="O137" s="11">
-        <f>SUM(N137,I137,I137,J137,K137,L137,M137)</f>
-        <v>3138</v>
+        <f>SUM(N137,,I137,J137,K137,L137,M137)</f>
+        <v>2904</v>
       </c>
     </row>
     <row r="138" ht="13.65" customHeight="1">
@@ -7701,8 +7616,8 @@
         <v>735</v>
       </c>
       <c r="O138" s="11">
-        <f>SUM(N138,I138,I138,J138,K138,L138,M138)</f>
-        <v>3145</v>
+        <f>SUM(N138,,I138,J138,K138,L138,M138)</f>
+        <v>2910</v>
       </c>
     </row>
     <row r="139" ht="13.65" customHeight="1">
@@ -7739,8 +7654,8 @@
         <v>736</v>
       </c>
       <c r="O139" s="11">
-        <f>SUM(N139,I139,I139,J139,K139,L139,M139)</f>
-        <v>3152</v>
+        <f>SUM(N139,,I139,J139,K139,L139,M139)</f>
+        <v>2916</v>
       </c>
     </row>
     <row r="140" ht="13.65" customHeight="1">
@@ -7777,8 +7692,8 @@
         <v>737</v>
       </c>
       <c r="O140" s="11">
-        <f>SUM(N140,I140,I140,J140,K140,L140,M140)</f>
-        <v>3159</v>
+        <f>SUM(N140,,I140,J140,K140,L140,M140)</f>
+        <v>2922</v>
       </c>
     </row>
     <row r="141" ht="13.65" customHeight="1">
@@ -7815,8 +7730,8 @@
         <v>738</v>
       </c>
       <c r="O141" s="11">
-        <f>SUM(N141,I141,I141,J141,K141,L141,M141)</f>
-        <v>3166</v>
+        <f>SUM(N141,,I141,J141,K141,L141,M141)</f>
+        <v>2928</v>
       </c>
     </row>
     <row r="142" ht="13.65" customHeight="1">
@@ -7853,8 +7768,8 @@
         <v>739</v>
       </c>
       <c r="O142" s="11">
-        <f>SUM(N142,I142,I142,J142,K142,L142,M142)</f>
-        <v>3173</v>
+        <f>SUM(N142,,I142,J142,K142,L142,M142)</f>
+        <v>2934</v>
       </c>
     </row>
     <row r="143" ht="13.65" customHeight="1">
@@ -7891,8 +7806,8 @@
         <v>740</v>
       </c>
       <c r="O143" s="11">
-        <f>SUM(N143,I143,I143,J143,K143,L143,M143)</f>
-        <v>3180</v>
+        <f>SUM(N143,,I143,J143,K143,L143,M143)</f>
+        <v>2940</v>
       </c>
     </row>
     <row r="144" ht="13.65" customHeight="1">
@@ -7929,8 +7844,8 @@
         <v>741</v>
       </c>
       <c r="O144" s="11">
-        <f>SUM(N144,I144,I144,J144,K144,L144,M144)</f>
-        <v>3187</v>
+        <f>SUM(N144,,I144,J144,K144,L144,M144)</f>
+        <v>2946</v>
       </c>
     </row>
     <row r="145" ht="13.65" customHeight="1">
@@ -7967,8 +7882,8 @@
         <v>742</v>
       </c>
       <c r="O145" s="11">
-        <f>SUM(N145,I145,I145,J145,K145,L145,M145)</f>
-        <v>3194</v>
+        <f>SUM(N145,,I145,J145,K145,L145,M145)</f>
+        <v>2952</v>
       </c>
     </row>
     <row r="146" ht="13.65" customHeight="1">
@@ -8005,8 +7920,8 @@
         <v>743</v>
       </c>
       <c r="O146" s="11">
-        <f>SUM(N146,I146,I146,J146,K146,L146,M146)</f>
-        <v>3201</v>
+        <f>SUM(N146,,I146,J146,K146,L146,M146)</f>
+        <v>2958</v>
       </c>
     </row>
     <row r="147" ht="13.65" customHeight="1">
@@ -8043,8 +7958,8 @@
         <v>744</v>
       </c>
       <c r="O147" s="11">
-        <f>SUM(N147,I147,I147,J147,K147,L147,M147)</f>
-        <v>3208</v>
+        <f>SUM(N147,,I147,J147,K147,L147,M147)</f>
+        <v>2964</v>
       </c>
     </row>
     <row r="148" ht="13.65" customHeight="1">
@@ -8081,8 +7996,8 @@
         <v>745</v>
       </c>
       <c r="O148" s="11">
-        <f>SUM(N148,I148,I148,J148,K148,L148,M148)</f>
-        <v>3215</v>
+        <f>SUM(N148,,I148,J148,K148,L148,M148)</f>
+        <v>2970</v>
       </c>
     </row>
     <row r="149" ht="13.65" customHeight="1">
@@ -8119,8 +8034,8 @@
         <v>746</v>
       </c>
       <c r="O149" s="11">
-        <f>SUM(N149,I149,I149,J149,K149,L149,M149)</f>
-        <v>3222</v>
+        <f>SUM(N149,,I149,J149,K149,L149,M149)</f>
+        <v>2976</v>
       </c>
     </row>
     <row r="150" ht="13.65" customHeight="1">
@@ -8157,8 +8072,8 @@
         <v>747</v>
       </c>
       <c r="O150" s="11">
-        <f>SUM(N150,I150,I150,J150,K150,L150,M150)</f>
-        <v>3229</v>
+        <f>SUM(N150,,I150,J150,K150,L150,M150)</f>
+        <v>2982</v>
       </c>
     </row>
     <row r="151" ht="13.65" customHeight="1">
@@ -8195,8 +8110,8 @@
         <v>748</v>
       </c>
       <c r="O151" s="11">
-        <f>SUM(N151,I151,I151,J151,K151,L151,M151)</f>
-        <v>3236</v>
+        <f>SUM(N151,,I151,J151,K151,L151,M151)</f>
+        <v>2988</v>
       </c>
     </row>
     <row r="152" ht="13.65" customHeight="1">
@@ -8233,8 +8148,8 @@
         <v>749</v>
       </c>
       <c r="O152" s="11">
-        <f>SUM(N152,I152,I152,J152,K152,L152,M152)</f>
-        <v>3243</v>
+        <f>SUM(N152,,I152,J152,K152,L152,M152)</f>
+        <v>2994</v>
       </c>
     </row>
     <row r="153" ht="13.65" customHeight="1">
@@ -8271,8 +8186,8 @@
         <v>750</v>
       </c>
       <c r="O153" s="11">
-        <f>SUM(N153,I153,I153,J153,K153,L153,M153)</f>
-        <v>3250</v>
+        <f>SUM(N153,,I153,J153,K153,L153,M153)</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="154" ht="13.65" customHeight="1">
@@ -8309,8 +8224,8 @@
         <v>751</v>
       </c>
       <c r="O154" s="11">
-        <f>SUM(N154,I154,I154,J154,K154,L154,M154)</f>
-        <v>3257</v>
+        <f>SUM(N154,,I154,J154,K154,L154,M154)</f>
+        <v>3006</v>
       </c>
     </row>
     <row r="155" ht="13.65" customHeight="1">
@@ -8347,8 +8262,8 @@
         <v>752</v>
       </c>
       <c r="O155" s="11">
-        <f>SUM(N155,I155,I155,J155,K155,L155,M155)</f>
-        <v>3264</v>
+        <f>SUM(N155,,I155,J155,K155,L155,M155)</f>
+        <v>3012</v>
       </c>
     </row>
     <row r="156" ht="13.65" customHeight="1">
@@ -8385,8 +8300,8 @@
         <v>753</v>
       </c>
       <c r="O156" s="11">
-        <f>SUM(N156,I156,I156,J156,K156,L156,M156)</f>
-        <v>3271</v>
+        <f>SUM(N156,,I156,J156,K156,L156,M156)</f>
+        <v>3018</v>
       </c>
     </row>
     <row r="157" ht="13.65" customHeight="1">
@@ -8423,8 +8338,8 @@
         <v>754</v>
       </c>
       <c r="O157" s="11">
-        <f>SUM(N157,I157,I157,J157,K157,L157,M157)</f>
-        <v>3278</v>
+        <f>SUM(N157,,I157,J157,K157,L157,M157)</f>
+        <v>3024</v>
       </c>
     </row>
     <row r="158" ht="13.65" customHeight="1">
@@ -8461,8 +8376,8 @@
         <v>755</v>
       </c>
       <c r="O158" s="11">
-        <f>SUM(N158,I158,I158,J158,K158,L158,M158)</f>
-        <v>3285</v>
+        <f>SUM(N158,,I158,J158,K158,L158,M158)</f>
+        <v>3030</v>
       </c>
     </row>
     <row r="159" ht="13.65" customHeight="1">
@@ -8499,8 +8414,8 @@
         <v>756</v>
       </c>
       <c r="O159" s="11">
-        <f>SUM(N159,I159,I159,J159,K159,L159,M159)</f>
-        <v>3292</v>
+        <f>SUM(N159,,I159,J159,K159,L159,M159)</f>
+        <v>3036</v>
       </c>
     </row>
     <row r="160" ht="13.65" customHeight="1">
@@ -8537,8 +8452,8 @@
         <v>757</v>
       </c>
       <c r="O160" s="11">
-        <f>SUM(N160,I160,I160,J160,K160,L160,M160)</f>
-        <v>3299</v>
+        <f>SUM(N160,,I160,J160,K160,L160,M160)</f>
+        <v>3042</v>
       </c>
     </row>
     <row r="161" ht="13.65" customHeight="1">
@@ -8575,8 +8490,8 @@
         <v>758</v>
       </c>
       <c r="O161" s="11">
-        <f>SUM(N161,I161,I161,J161,K161,L161,M161)</f>
-        <v>3306</v>
+        <f>SUM(N161,,I161,J161,K161,L161,M161)</f>
+        <v>3048</v>
       </c>
     </row>
     <row r="162" ht="13.65" customHeight="1">
@@ -8613,8 +8528,8 @@
         <v>759</v>
       </c>
       <c r="O162" s="11">
-        <f>SUM(N162,I162,I162,J162,K162,L162,M162)</f>
-        <v>3313</v>
+        <f>SUM(N162,,I162,J162,K162,L162,M162)</f>
+        <v>3054</v>
       </c>
     </row>
     <row r="163" ht="13.65" customHeight="1">
@@ -8651,8 +8566,8 @@
         <v>760</v>
       </c>
       <c r="O163" s="11">
-        <f>SUM(N163,I163,I163,J163,K163,L163,M163)</f>
-        <v>3320</v>
+        <f>SUM(N163,,I163,J163,K163,L163,M163)</f>
+        <v>3060</v>
       </c>
     </row>
     <row r="164" ht="13.65" customHeight="1">
@@ -8689,8 +8604,8 @@
         <v>761</v>
       </c>
       <c r="O164" s="11">
-        <f>SUM(N164,I164,I164,J164,K164,L164,M164)</f>
-        <v>3327</v>
+        <f>SUM(N164,,I164,J164,K164,L164,M164)</f>
+        <v>3066</v>
       </c>
     </row>
     <row r="165" ht="13.65" customHeight="1">
@@ -8727,8 +8642,8 @@
         <v>762</v>
       </c>
       <c r="O165" s="11">
-        <f>SUM(N165,I165,I165,J165,K165,L165,M165)</f>
-        <v>3334</v>
+        <f>SUM(N165,,I165,J165,K165,L165,M165)</f>
+        <v>3072</v>
       </c>
     </row>
     <row r="166" ht="13.65" customHeight="1">
@@ -8765,8 +8680,8 @@
         <v>763</v>
       </c>
       <c r="O166" s="11">
-        <f>SUM(N166,I166,I166,J166,K166,L166,M166)</f>
-        <v>3341</v>
+        <f>SUM(N166,,I166,J166,K166,L166,M166)</f>
+        <v>3078</v>
       </c>
     </row>
     <row r="167" ht="13.65" customHeight="1">
@@ -8803,8 +8718,8 @@
         <v>764</v>
       </c>
       <c r="O167" s="11">
-        <f>SUM(N167,I167,I167,J167,K167,L167,M167)</f>
-        <v>3348</v>
+        <f>SUM(N167,,I167,J167,K167,L167,M167)</f>
+        <v>3084</v>
       </c>
     </row>
     <row r="168" ht="13.65" customHeight="1">
@@ -8841,8 +8756,8 @@
         <v>765</v>
       </c>
       <c r="O168" s="11">
-        <f>SUM(N168,I168,I168,J168,K168,L168,M168)</f>
-        <v>3355</v>
+        <f>SUM(N168,,I168,J168,K168,L168,M168)</f>
+        <v>3090</v>
       </c>
     </row>
     <row r="169" ht="13.65" customHeight="1">
@@ -8879,8 +8794,8 @@
         <v>766</v>
       </c>
       <c r="O169" s="11">
-        <f>SUM(N169,I169,I169,J169,K169,L169,M169)</f>
-        <v>3362</v>
+        <f>SUM(N169,,I169,J169,K169,L169,M169)</f>
+        <v>3096</v>
       </c>
     </row>
     <row r="170" ht="13.65" customHeight="1">
@@ -8917,8 +8832,8 @@
         <v>767</v>
       </c>
       <c r="O170" s="11">
-        <f>SUM(N170,I170,I170,J170,K170,L170,M170)</f>
-        <v>3369</v>
+        <f>SUM(N170,,I170,J170,K170,L170,M170)</f>
+        <v>3102</v>
       </c>
     </row>
     <row r="171" ht="13.65" customHeight="1">
@@ -8955,8 +8870,8 @@
         <v>768</v>
       </c>
       <c r="O171" s="11">
-        <f>SUM(N171,I171,I171,J171,K171,L171,M171)</f>
-        <v>3376</v>
+        <f>SUM(N171,,I171,J171,K171,L171,M171)</f>
+        <v>3108</v>
       </c>
     </row>
     <row r="172" ht="13.65" customHeight="1">
@@ -8993,8 +8908,8 @@
         <v>769</v>
       </c>
       <c r="O172" s="11">
-        <f>SUM(N172,I172,I172,J172,K172,L172,M172)</f>
-        <v>3383</v>
+        <f>SUM(N172,,I172,J172,K172,L172,M172)</f>
+        <v>3114</v>
       </c>
     </row>
     <row r="173" ht="13.65" customHeight="1">
@@ -9031,8 +8946,8 @@
         <v>770</v>
       </c>
       <c r="O173" s="11">
-        <f>SUM(N173,I173,I173,J173,K173,L173,M173)</f>
-        <v>3390</v>
+        <f>SUM(N173,,I173,J173,K173,L173,M173)</f>
+        <v>3120</v>
       </c>
     </row>
     <row r="174" ht="13.65" customHeight="1">
@@ -9069,8 +8984,8 @@
         <v>771</v>
       </c>
       <c r="O174" s="11">
-        <f>SUM(N174,I174,I174,J174,K174,L174,M174)</f>
-        <v>3397</v>
+        <f>SUM(N174,,I174,J174,K174,L174,M174)</f>
+        <v>3126</v>
       </c>
     </row>
     <row r="175" ht="13.65" customHeight="1">
@@ -9107,8 +9022,8 @@
         <v>772</v>
       </c>
       <c r="O175" s="11">
-        <f>SUM(N175,I175,I175,J175,K175,L175,M175)</f>
-        <v>3404</v>
+        <f>SUM(N175,,I175,J175,K175,L175,M175)</f>
+        <v>3132</v>
       </c>
     </row>
     <row r="176" ht="13.65" customHeight="1">
@@ -9145,8 +9060,8 @@
         <v>773</v>
       </c>
       <c r="O176" s="11">
-        <f>SUM(N176,I176,I176,J176,K176,L176,M176)</f>
-        <v>3411</v>
+        <f>SUM(N176,,I176,J176,K176,L176,M176)</f>
+        <v>3138</v>
       </c>
     </row>
     <row r="177" ht="13.65" customHeight="1">
@@ -9183,8 +9098,8 @@
         <v>774</v>
       </c>
       <c r="O177" s="11">
-        <f>SUM(N177,I177,I177,J177,K177,L177,M177)</f>
-        <v>3418</v>
+        <f>SUM(N177,,I177,J177,K177,L177,M177)</f>
+        <v>3144</v>
       </c>
     </row>
     <row r="178" ht="13.65" customHeight="1">
@@ -9221,8 +9136,8 @@
         <v>775</v>
       </c>
       <c r="O178" s="11">
-        <f>SUM(N178,I178,I178,J178,K178,L178,M178)</f>
-        <v>3425</v>
+        <f>SUM(N178,,I178,J178,K178,L178,M178)</f>
+        <v>3150</v>
       </c>
     </row>
     <row r="179" ht="13.65" customHeight="1">
@@ -9259,8 +9174,8 @@
         <v>776</v>
       </c>
       <c r="O179" s="11">
-        <f>SUM(N179,I179,I179,J179,K179,L179,M179)</f>
-        <v>3432</v>
+        <f>SUM(N179,,I179,J179,K179,L179,M179)</f>
+        <v>3156</v>
       </c>
     </row>
     <row r="180" ht="13.65" customHeight="1">
@@ -9297,8 +9212,8 @@
         <v>777</v>
       </c>
       <c r="O180" s="11">
-        <f>SUM(N180,I180,I180,J180,K180,L180,M180)</f>
-        <v>3439</v>
+        <f>SUM(N180,,I180,J180,K180,L180,M180)</f>
+        <v>3162</v>
       </c>
     </row>
     <row r="181" ht="13.65" customHeight="1">
@@ -9335,8 +9250,8 @@
         <v>778</v>
       </c>
       <c r="O181" s="11">
-        <f>SUM(N181,I181,I181,J181,K181,L181,M181)</f>
-        <v>3446</v>
+        <f>SUM(N181,,I181,J181,K181,L181,M181)</f>
+        <v>3168</v>
       </c>
     </row>
     <row r="182" ht="13.65" customHeight="1">
@@ -9373,8 +9288,8 @@
         <v>779</v>
       </c>
       <c r="O182" s="11">
-        <f>SUM(N182,I182,I182,J182,K182,L182,M182)</f>
-        <v>3453</v>
+        <f>SUM(N182,,I182,J182,K182,L182,M182)</f>
+        <v>3174</v>
       </c>
     </row>
     <row r="183" ht="13.65" customHeight="1">
@@ -9411,8 +9326,8 @@
         <v>780</v>
       </c>
       <c r="O183" s="11">
-        <f>SUM(N183,I183,I183,J183,K183,L183,M183)</f>
-        <v>3460</v>
+        <f>SUM(N183,,I183,J183,K183,L183,M183)</f>
+        <v>3180</v>
       </c>
     </row>
     <row r="184" ht="13.65" customHeight="1">
@@ -9449,8 +9364,8 @@
         <v>781</v>
       </c>
       <c r="O184" s="11">
-        <f>SUM(N184,I184,I184,J184,K184,L184,M184)</f>
-        <v>3467</v>
+        <f>SUM(N184,,I184,J184,K184,L184,M184)</f>
+        <v>3186</v>
       </c>
     </row>
     <row r="185" ht="13.65" customHeight="1">
@@ -9487,8 +9402,8 @@
         <v>782</v>
       </c>
       <c r="O185" s="11">
-        <f>SUM(N185,I185,I185,J185,K185,L185,M185)</f>
-        <v>3474</v>
+        <f>SUM(N185,,I185,J185,K185,L185,M185)</f>
+        <v>3192</v>
       </c>
     </row>
     <row r="186" ht="13.65" customHeight="1">
@@ -9525,8 +9440,8 @@
         <v>783</v>
       </c>
       <c r="O186" s="11">
-        <f>SUM(N186,I186,I186,J186,K186,L186,M186)</f>
-        <v>3481</v>
+        <f>SUM(N186,,I186,J186,K186,L186,M186)</f>
+        <v>3198</v>
       </c>
     </row>
     <row r="187" ht="13.65" customHeight="1">
@@ -9563,8 +9478,8 @@
         <v>784</v>
       </c>
       <c r="O187" s="11">
-        <f>SUM(N187,I187,I187,J187,K187,L187,M187)</f>
-        <v>3488</v>
+        <f>SUM(N187,,I187,J187,K187,L187,M187)</f>
+        <v>3204</v>
       </c>
     </row>
     <row r="188" ht="13.65" customHeight="1">
@@ -9601,8 +9516,8 @@
         <v>785</v>
       </c>
       <c r="O188" s="11">
-        <f>SUM(N188,I188,I188,J188,K188,L188,M188)</f>
-        <v>3495</v>
+        <f>SUM(N188,,I188,J188,K188,L188,M188)</f>
+        <v>3210</v>
       </c>
     </row>
     <row r="189" ht="13.65" customHeight="1">
@@ -9639,8 +9554,8 @@
         <v>786</v>
       </c>
       <c r="O189" s="11">
-        <f>SUM(N189,I189,I189,J189,K189,L189,M189)</f>
-        <v>3502</v>
+        <f>SUM(N189,,I189,J189,K189,L189,M189)</f>
+        <v>3216</v>
       </c>
     </row>
     <row r="190" ht="13.65" customHeight="1">
@@ -9677,8 +9592,8 @@
         <v>787</v>
       </c>
       <c r="O190" s="11">
-        <f>SUM(N190,I190,I190,J190,K190,L190,M190)</f>
-        <v>3509</v>
+        <f>SUM(N190,,I190,J190,K190,L190,M190)</f>
+        <v>3222</v>
       </c>
     </row>
     <row r="191" ht="13.65" customHeight="1">
@@ -9715,8 +9630,8 @@
         <v>788</v>
       </c>
       <c r="O191" s="11">
-        <f>SUM(N191,I191,I191,J191,K191,L191,M191)</f>
-        <v>3516</v>
+        <f>SUM(N191,,I191,J191,K191,L191,M191)</f>
+        <v>3228</v>
       </c>
     </row>
     <row r="192" ht="13.65" customHeight="1">
@@ -9753,8 +9668,8 @@
         <v>789</v>
       </c>
       <c r="O192" s="11">
-        <f>SUM(N192,I192,I192,J192,K192,L192,M192)</f>
-        <v>3523</v>
+        <f>SUM(N192,,I192,J192,K192,L192,M192)</f>
+        <v>3234</v>
       </c>
     </row>
     <row r="193" ht="13.65" customHeight="1">
@@ -9791,8 +9706,8 @@
         <v>790</v>
       </c>
       <c r="O193" s="11">
-        <f>SUM(N193,I193,I193,J193,K193,L193,M193)</f>
-        <v>3530</v>
+        <f>SUM(N193,,I193,J193,K193,L193,M193)</f>
+        <v>3240</v>
       </c>
     </row>
     <row r="194" ht="13.65" customHeight="1">
@@ -9829,8 +9744,8 @@
         <v>791</v>
       </c>
       <c r="O194" s="11">
-        <f>SUM(N194,I194,I194,J194,K194,L194,M194)</f>
-        <v>3537</v>
+        <f>SUM(N194,,I194,J194,K194,L194,M194)</f>
+        <v>3246</v>
       </c>
     </row>
     <row r="195" ht="13.65" customHeight="1">
@@ -9867,8 +9782,8 @@
         <v>792</v>
       </c>
       <c r="O195" s="11">
-        <f>SUM(N195,I195,I195,J195,K195,L195,M195)</f>
-        <v>3544</v>
+        <f>SUM(N195,,I195,J195,K195,L195,M195)</f>
+        <v>3252</v>
       </c>
     </row>
     <row r="196" ht="13.65" customHeight="1">
@@ -9905,8 +9820,8 @@
         <v>793</v>
       </c>
       <c r="O196" s="11">
-        <f>SUM(N196,I196,I196,J196,K196,L196,M196)</f>
-        <v>3551</v>
+        <f>SUM(N196,,I196,J196,K196,L196,M196)</f>
+        <v>3258</v>
       </c>
     </row>
     <row r="197" ht="13.65" customHeight="1">
@@ -9943,8 +9858,8 @@
         <v>794</v>
       </c>
       <c r="O197" s="11">
-        <f>SUM(N197,I197,I197,J197,K197,L197,M197)</f>
-        <v>3558</v>
+        <f>SUM(N197,,I197,J197,K197,L197,M197)</f>
+        <v>3264</v>
       </c>
     </row>
     <row r="198" ht="13.65" customHeight="1">
@@ -9981,8 +9896,8 @@
         <v>795</v>
       </c>
       <c r="O198" s="11">
-        <f>SUM(N198,I198,I198,J198,K198,L198,M198)</f>
-        <v>3565</v>
+        <f>SUM(N198,,I198,J198,K198,L198,M198)</f>
+        <v>3270</v>
       </c>
     </row>
     <row r="199" ht="13.65" customHeight="1">
@@ -10019,8 +9934,8 @@
         <v>796</v>
       </c>
       <c r="O199" s="11">
-        <f>SUM(N199,I199,I199,J199,K199,L199,M199)</f>
-        <v>3572</v>
+        <f>SUM(N199,,I199,J199,K199,L199,M199)</f>
+        <v>3276</v>
       </c>
     </row>
     <row r="200" ht="13.65" customHeight="1">
@@ -10057,8 +9972,8 @@
         <v>797</v>
       </c>
       <c r="O200" s="11">
-        <f>SUM(N200,I200,I200,J200,K200,L200,M200)</f>
-        <v>3579</v>
+        <f>SUM(N200,,I200,J200,K200,L200,M200)</f>
+        <v>3282</v>
       </c>
     </row>
     <row r="201" ht="13.65" customHeight="1">
@@ -10095,8 +10010,8 @@
         <v>798</v>
       </c>
       <c r="O201" s="11">
-        <f>SUM(N201,I201,I201,J201,K201,L201,M201)</f>
-        <v>3586</v>
+        <f>SUM(N201,,I201,J201,K201,L201,M201)</f>
+        <v>3288</v>
       </c>
     </row>
     <row r="202" ht="13.65" customHeight="1">
@@ -10133,8 +10048,8 @@
         <v>799</v>
       </c>
       <c r="O202" s="11">
-        <f>SUM(N202,I202,I202,J202,K202,L202,M202)</f>
-        <v>3593</v>
+        <f>SUM(N202,,I202,J202,K202,L202,M202)</f>
+        <v>3294</v>
       </c>
     </row>
     <row r="203" ht="13.65" customHeight="1">
@@ -10171,8 +10086,8 @@
         <v>800</v>
       </c>
       <c r="O203" s="11">
-        <f>SUM(N203,I203,I203,J203,K203,L203,M203)</f>
-        <v>3600</v>
+        <f>SUM(N203,,I203,J203,K203,L203,M203)</f>
+        <v>3300</v>
       </c>
     </row>
     <row r="204" ht="13.65" customHeight="1">
@@ -10209,8 +10124,8 @@
         <v>801</v>
       </c>
       <c r="O204" s="11">
-        <f>SUM(N204,I204,I204,J204,K204,L204,M204)</f>
-        <v>3607</v>
+        <f>SUM(N204,,I204,J204,K204,L204,M204)</f>
+        <v>3306</v>
       </c>
     </row>
     <row r="205" ht="13.65" customHeight="1">
@@ -10247,8 +10162,8 @@
         <v>802</v>
       </c>
       <c r="O205" s="11">
-        <f>SUM(N205,I205,I205,J205,K205,L205,M205)</f>
-        <v>3614</v>
+        <f>SUM(N205,,I205,J205,K205,L205,M205)</f>
+        <v>3312</v>
       </c>
     </row>
     <row r="206" ht="13.65" customHeight="1">
@@ -10285,8 +10200,8 @@
         <v>803</v>
       </c>
       <c r="O206" s="11">
-        <f>SUM(N206,I206,I206,J206,K206,L206,M206)</f>
-        <v>3621</v>
+        <f>SUM(N206,,I206,J206,K206,L206,M206)</f>
+        <v>3318</v>
       </c>
     </row>
     <row r="207" ht="13.65" customHeight="1">
@@ -10323,8 +10238,8 @@
         <v>804</v>
       </c>
       <c r="O207" s="11">
-        <f>SUM(N207,I207,I207,J207,K207,L207,M207)</f>
-        <v>3628</v>
+        <f>SUM(N207,,I207,J207,K207,L207,M207)</f>
+        <v>3324</v>
       </c>
     </row>
     <row r="208" ht="13.65" customHeight="1">
@@ -10361,8 +10276,8 @@
         <v>805</v>
       </c>
       <c r="O208" s="11">
-        <f>SUM(N208,I208,I208,J208,K208,L208,M208)</f>
-        <v>3635</v>
+        <f>SUM(N208,,I208,J208,K208,L208,M208)</f>
+        <v>3330</v>
       </c>
     </row>
     <row r="209" ht="13.65" customHeight="1">
@@ -10399,8 +10314,8 @@
         <v>806</v>
       </c>
       <c r="O209" s="11">
-        <f>SUM(N209,I209,I209,J209,K209,L209,M209)</f>
-        <v>3642</v>
+        <f>SUM(N209,,I209,J209,K209,L209,M209)</f>
+        <v>3336</v>
       </c>
     </row>
     <row r="210" ht="13.65" customHeight="1">
@@ -10437,8 +10352,8 @@
         <v>807</v>
       </c>
       <c r="O210" s="11">
-        <f>SUM(N210,I210,I210,J210,K210,L210,M210)</f>
-        <v>3649</v>
+        <f>SUM(N210,,I210,J210,K210,L210,M210)</f>
+        <v>3342</v>
       </c>
     </row>
     <row r="211" ht="13.65" customHeight="1">
@@ -10475,8 +10390,8 @@
         <v>808</v>
       </c>
       <c r="O211" s="11">
-        <f>SUM(N211,I211,I211,J211,K211,L211,M211)</f>
-        <v>3656</v>
+        <f>SUM(N211,,I211,J211,K211,L211,M211)</f>
+        <v>3348</v>
       </c>
     </row>
     <row r="212" ht="13.65" customHeight="1">
@@ -10513,8 +10428,8 @@
         <v>809</v>
       </c>
       <c r="O212" s="11">
-        <f>SUM(N212,I212,I212,J212,K212,L212,M212)</f>
-        <v>3663</v>
+        <f>SUM(N212,,I212,J212,K212,L212,M212)</f>
+        <v>3354</v>
       </c>
     </row>
     <row r="213" ht="13.65" customHeight="1">
@@ -10551,8 +10466,8 @@
         <v>810</v>
       </c>
       <c r="O213" s="11">
-        <f>SUM(N213,I213,I213,J213,K213,L213,M213)</f>
-        <v>3670</v>
+        <f>SUM(N213,,I213,J213,K213,L213,M213)</f>
+        <v>3360</v>
       </c>
     </row>
     <row r="214" ht="13.65" customHeight="1">
@@ -10589,8 +10504,8 @@
         <v>811</v>
       </c>
       <c r="O214" s="11">
-        <f>SUM(N214,I214,I214,J214,K214,L214,M214)</f>
-        <v>3677</v>
+        <f>SUM(N214,,I214,J214,K214,L214,M214)</f>
+        <v>3366</v>
       </c>
     </row>
     <row r="215" ht="13.65" customHeight="1">
@@ -10627,8 +10542,8 @@
         <v>812</v>
       </c>
       <c r="O215" s="11">
-        <f>SUM(N215,I215,I215,J215,K215,L215,M215)</f>
-        <v>3684</v>
+        <f>SUM(N215,,I215,J215,K215,L215,M215)</f>
+        <v>3372</v>
       </c>
     </row>
     <row r="216" ht="13.65" customHeight="1">
@@ -10665,8 +10580,8 @@
         <v>813</v>
       </c>
       <c r="O216" s="11">
-        <f>SUM(N216,I216,I216,J216,K216,L216,M216)</f>
-        <v>3691</v>
+        <f>SUM(N216,,I216,J216,K216,L216,M216)</f>
+        <v>3378</v>
       </c>
     </row>
     <row r="217" ht="13.65" customHeight="1">
@@ -10703,8 +10618,8 @@
         <v>814</v>
       </c>
       <c r="O217" s="11">
-        <f>SUM(N217,I217,I217,J217,K217,L217,M217)</f>
-        <v>3698</v>
+        <f>SUM(N217,,I217,J217,K217,L217,M217)</f>
+        <v>3384</v>
       </c>
     </row>
     <row r="218" ht="13.65" customHeight="1">
@@ -10741,8 +10656,8 @@
         <v>815</v>
       </c>
       <c r="O218" s="11">
-        <f>SUM(N218,I218,I218,J218,K218,L218,M218)</f>
-        <v>3705</v>
+        <f>SUM(N218,,I218,J218,K218,L218,M218)</f>
+        <v>3390</v>
       </c>
     </row>
     <row r="219" ht="13.65" customHeight="1">
@@ -10779,8 +10694,8 @@
         <v>816</v>
       </c>
       <c r="O219" s="11">
-        <f>SUM(N219,I219,I219,J219,K219,L219,M219)</f>
-        <v>3712</v>
+        <f>SUM(N219,,I219,J219,K219,L219,M219)</f>
+        <v>3396</v>
       </c>
     </row>
     <row r="220" ht="13.65" customHeight="1">
@@ -10817,18 +10732,18 @@
         <v>817</v>
       </c>
       <c r="O220" s="11">
-        <f>SUM(N220,I220,I220,J220,K220,L220,M220)</f>
-        <v>3719</v>
+        <f>SUM(N220,,I220,J220,K220,L220,M220)</f>
+        <v>3402</v>
       </c>
     </row>
     <row r="221" ht="13.65" customHeight="1">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
-      <c r="C221" t="s" s="14">
+      <c r="C221" t="s" s="15">
         <v>349</v>
       </c>
       <c r="D221" s="11"/>
-      <c r="E221" t="s" s="14">
+      <c r="E221" t="s" s="15">
         <v>345</v>
       </c>
       <c r="F221" s="13"/>
@@ -10855,2712 +10770,9 @@
         <v>818</v>
       </c>
       <c r="O221" s="11">
-        <f>SUM(N221,I221,I221,J221,K221,L221,M221)</f>
-        <v>3726</v>
-      </c>
-    </row>
-    <row r="222" ht="12.8" customHeight="1">
-      <c r="A222" s="15"/>
-      <c r="B222" s="16"/>
-      <c r="C222" s="17"/>
-      <c r="D222" s="16"/>
-      <c r="E222" s="17"/>
-      <c r="F222" s="16"/>
-      <c r="G222" s="18"/>
-      <c r="H222" s="16"/>
-      <c r="I222" s="16"/>
-      <c r="J222" s="16"/>
-      <c r="K222" s="16"/>
-      <c r="L222" s="16"/>
-      <c r="M222" s="16"/>
-      <c r="N222" s="16"/>
-      <c r="O222" s="19"/>
-    </row>
-    <row r="223" ht="12.8" customHeight="1">
-      <c r="A223" s="20"/>
-      <c r="B223" s="21"/>
-      <c r="C223" s="17"/>
-      <c r="D223" s="21"/>
-      <c r="E223" s="17"/>
-      <c r="F223" s="21"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="21"/>
-      <c r="I223" s="21"/>
-      <c r="J223" s="21"/>
-      <c r="K223" s="21"/>
-      <c r="L223" s="21"/>
-      <c r="M223" s="21"/>
-      <c r="N223" s="21"/>
-      <c r="O223" s="22"/>
-    </row>
-    <row r="224" ht="12.8" customHeight="1">
-      <c r="A224" s="20"/>
-      <c r="B224" s="21"/>
-      <c r="C224" s="17"/>
-      <c r="D224" s="21"/>
-      <c r="E224" s="17"/>
-      <c r="F224" s="21"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="21"/>
-      <c r="I224" s="21"/>
-      <c r="J224" s="21"/>
-      <c r="K224" s="21"/>
-      <c r="L224" s="21"/>
-      <c r="M224" s="21"/>
-      <c r="N224" s="21"/>
-      <c r="O224" s="22"/>
-    </row>
-    <row r="225" ht="12.8" customHeight="1">
-      <c r="A225" s="20"/>
-      <c r="B225" s="21"/>
-      <c r="C225" s="17"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="17"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="21"/>
-      <c r="I225" s="21"/>
-      <c r="J225" s="21"/>
-      <c r="K225" s="21"/>
-      <c r="L225" s="21"/>
-      <c r="M225" s="21"/>
-      <c r="N225" s="21"/>
-      <c r="O225" s="22"/>
-    </row>
-    <row r="226" ht="12.8" customHeight="1">
-      <c r="A226" s="20"/>
-      <c r="B226" s="21"/>
-      <c r="C226" s="17"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="17"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="21"/>
-      <c r="I226" s="21"/>
-      <c r="J226" s="21"/>
-      <c r="K226" s="21"/>
-      <c r="L226" s="21"/>
-      <c r="M226" s="21"/>
-      <c r="N226" s="21"/>
-      <c r="O226" s="22"/>
-    </row>
-    <row r="227" ht="12.8" customHeight="1">
-      <c r="A227" s="20"/>
-      <c r="B227" s="21"/>
-      <c r="C227" s="17"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="17"/>
-      <c r="F227" s="21"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="21"/>
-      <c r="I227" s="21"/>
-      <c r="J227" s="21"/>
-      <c r="K227" s="21"/>
-      <c r="L227" s="21"/>
-      <c r="M227" s="21"/>
-      <c r="N227" s="21"/>
-      <c r="O227" s="22"/>
-    </row>
-    <row r="228" ht="12.8" customHeight="1">
-      <c r="A228" s="20"/>
-      <c r="B228" s="21"/>
-      <c r="C228" s="17"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="17"/>
-      <c r="F228" s="21"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="21"/>
-      <c r="I228" s="21"/>
-      <c r="J228" s="21"/>
-      <c r="K228" s="21"/>
-      <c r="L228" s="21"/>
-      <c r="M228" s="21"/>
-      <c r="N228" s="21"/>
-      <c r="O228" s="22"/>
-    </row>
-    <row r="229" ht="12.8" customHeight="1">
-      <c r="A229" s="20"/>
-      <c r="B229" s="21"/>
-      <c r="C229" s="17"/>
-      <c r="D229" s="21"/>
-      <c r="E229" s="17"/>
-      <c r="F229" s="21"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="21"/>
-      <c r="I229" s="21"/>
-      <c r="J229" s="21"/>
-      <c r="K229" s="21"/>
-      <c r="L229" s="21"/>
-      <c r="M229" s="21"/>
-      <c r="N229" s="21"/>
-      <c r="O229" s="22"/>
-    </row>
-    <row r="230" ht="12.8" customHeight="1">
-      <c r="A230" s="20"/>
-      <c r="B230" s="21"/>
-      <c r="C230" s="17"/>
-      <c r="D230" s="21"/>
-      <c r="E230" s="17"/>
-      <c r="F230" s="21"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="21"/>
-      <c r="I230" s="21"/>
-      <c r="J230" s="21"/>
-      <c r="K230" s="21"/>
-      <c r="L230" s="21"/>
-      <c r="M230" s="21"/>
-      <c r="N230" s="21"/>
-      <c r="O230" s="22"/>
-    </row>
-    <row r="231" ht="12.8" customHeight="1">
-      <c r="A231" s="20"/>
-      <c r="B231" s="21"/>
-      <c r="C231" s="17"/>
-      <c r="D231" s="21"/>
-      <c r="E231" s="17"/>
-      <c r="F231" s="21"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="21"/>
-      <c r="I231" s="21"/>
-      <c r="J231" s="21"/>
-      <c r="K231" s="21"/>
-      <c r="L231" s="21"/>
-      <c r="M231" s="21"/>
-      <c r="N231" s="21"/>
-      <c r="O231" s="22"/>
-    </row>
-    <row r="232" ht="12.8" customHeight="1">
-      <c r="A232" s="20"/>
-      <c r="B232" s="21"/>
-      <c r="C232" s="17"/>
-      <c r="D232" s="21"/>
-      <c r="E232" s="17"/>
-      <c r="F232" s="21"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="21"/>
-      <c r="I232" s="21"/>
-      <c r="J232" s="21"/>
-      <c r="K232" s="21"/>
-      <c r="L232" s="21"/>
-      <c r="M232" s="21"/>
-      <c r="N232" s="21"/>
-      <c r="O232" s="22"/>
-    </row>
-    <row r="233" ht="12.8" customHeight="1">
-      <c r="A233" s="20"/>
-      <c r="B233" s="21"/>
-      <c r="C233" s="17"/>
-      <c r="D233" s="21"/>
-      <c r="E233" s="17"/>
-      <c r="F233" s="21"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="21"/>
-      <c r="I233" s="21"/>
-      <c r="J233" s="21"/>
-      <c r="K233" s="21"/>
-      <c r="L233" s="21"/>
-      <c r="M233" s="21"/>
-      <c r="N233" s="21"/>
-      <c r="O233" s="22"/>
-    </row>
-    <row r="234" ht="12.8" customHeight="1">
-      <c r="A234" s="20"/>
-      <c r="B234" s="21"/>
-      <c r="C234" s="17"/>
-      <c r="D234" s="21"/>
-      <c r="E234" s="17"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="21"/>
-      <c r="I234" s="21"/>
-      <c r="J234" s="21"/>
-      <c r="K234" s="21"/>
-      <c r="L234" s="21"/>
-      <c r="M234" s="21"/>
-      <c r="N234" s="21"/>
-      <c r="O234" s="22"/>
-    </row>
-    <row r="235" ht="12.8" customHeight="1">
-      <c r="A235" s="20"/>
-      <c r="B235" s="21"/>
-      <c r="C235" s="17"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="17"/>
-      <c r="F235" s="21"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="21"/>
-      <c r="I235" s="21"/>
-      <c r="J235" s="21"/>
-      <c r="K235" s="21"/>
-      <c r="L235" s="21"/>
-      <c r="M235" s="21"/>
-      <c r="N235" s="21"/>
-      <c r="O235" s="22"/>
-    </row>
-    <row r="236" ht="12.8" customHeight="1">
-      <c r="A236" s="20"/>
-      <c r="B236" s="21"/>
-      <c r="C236" s="17"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="17"/>
-      <c r="F236" s="21"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="21"/>
-      <c r="I236" s="21"/>
-      <c r="J236" s="21"/>
-      <c r="K236" s="21"/>
-      <c r="L236" s="21"/>
-      <c r="M236" s="21"/>
-      <c r="N236" s="21"/>
-      <c r="O236" s="22"/>
-    </row>
-    <row r="237" ht="12.8" customHeight="1">
-      <c r="A237" s="20"/>
-      <c r="B237" s="21"/>
-      <c r="C237" s="17"/>
-      <c r="D237" s="21"/>
-      <c r="E237" s="17"/>
-      <c r="F237" s="21"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="21"/>
-      <c r="I237" s="21"/>
-      <c r="J237" s="21"/>
-      <c r="K237" s="21"/>
-      <c r="L237" s="21"/>
-      <c r="M237" s="21"/>
-      <c r="N237" s="21"/>
-      <c r="O237" s="22"/>
-    </row>
-    <row r="238" ht="12.8" customHeight="1">
-      <c r="A238" s="20"/>
-      <c r="B238" s="21"/>
-      <c r="C238" s="17"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="17"/>
-      <c r="F238" s="21"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="21"/>
-      <c r="I238" s="21"/>
-      <c r="J238" s="21"/>
-      <c r="K238" s="21"/>
-      <c r="L238" s="21"/>
-      <c r="M238" s="21"/>
-      <c r="N238" s="21"/>
-      <c r="O238" s="22"/>
-    </row>
-    <row r="239" ht="12.8" customHeight="1">
-      <c r="A239" s="20"/>
-      <c r="B239" s="21"/>
-      <c r="C239" s="17"/>
-      <c r="D239" s="21"/>
-      <c r="E239" s="17"/>
-      <c r="F239" s="21"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="21"/>
-      <c r="I239" s="21"/>
-      <c r="J239" s="21"/>
-      <c r="K239" s="21"/>
-      <c r="L239" s="21"/>
-      <c r="M239" s="21"/>
-      <c r="N239" s="21"/>
-      <c r="O239" s="22"/>
-    </row>
-    <row r="240" ht="12.8" customHeight="1">
-      <c r="A240" s="20"/>
-      <c r="B240" s="21"/>
-      <c r="C240" s="17"/>
-      <c r="D240" s="21"/>
-      <c r="E240" s="17"/>
-      <c r="F240" s="21"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="21"/>
-      <c r="I240" s="21"/>
-      <c r="J240" s="21"/>
-      <c r="K240" s="21"/>
-      <c r="L240" s="21"/>
-      <c r="M240" s="21"/>
-      <c r="N240" s="21"/>
-      <c r="O240" s="22"/>
-    </row>
-    <row r="241" ht="12.8" customHeight="1">
-      <c r="A241" s="20"/>
-      <c r="B241" s="21"/>
-      <c r="C241" s="17"/>
-      <c r="D241" s="21"/>
-      <c r="E241" s="17"/>
-      <c r="F241" s="21"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="21"/>
-      <c r="I241" s="21"/>
-      <c r="J241" s="21"/>
-      <c r="K241" s="21"/>
-      <c r="L241" s="21"/>
-      <c r="M241" s="21"/>
-      <c r="N241" s="21"/>
-      <c r="O241" s="22"/>
-    </row>
-    <row r="242" ht="12.8" customHeight="1">
-      <c r="A242" s="20"/>
-      <c r="B242" s="21"/>
-      <c r="C242" s="17"/>
-      <c r="D242" s="21"/>
-      <c r="E242" s="17"/>
-      <c r="F242" s="21"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="21"/>
-      <c r="I242" s="21"/>
-      <c r="J242" s="21"/>
-      <c r="K242" s="21"/>
-      <c r="L242" s="21"/>
-      <c r="M242" s="21"/>
-      <c r="N242" s="21"/>
-      <c r="O242" s="22"/>
-    </row>
-    <row r="243" ht="12.8" customHeight="1">
-      <c r="A243" s="20"/>
-      <c r="B243" s="21"/>
-      <c r="C243" s="17"/>
-      <c r="D243" s="21"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="21"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="21"/>
-      <c r="I243" s="21"/>
-      <c r="J243" s="21"/>
-      <c r="K243" s="21"/>
-      <c r="L243" s="21"/>
-      <c r="M243" s="21"/>
-      <c r="N243" s="21"/>
-      <c r="O243" s="22"/>
-    </row>
-    <row r="244" ht="12.8" customHeight="1">
-      <c r="A244" s="20"/>
-      <c r="B244" s="21"/>
-      <c r="C244" s="17"/>
-      <c r="D244" s="21"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="21"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="21"/>
-      <c r="I244" s="21"/>
-      <c r="J244" s="21"/>
-      <c r="K244" s="21"/>
-      <c r="L244" s="21"/>
-      <c r="M244" s="21"/>
-      <c r="N244" s="21"/>
-      <c r="O244" s="22"/>
-    </row>
-    <row r="245" ht="12.8" customHeight="1">
-      <c r="A245" s="20"/>
-      <c r="B245" s="21"/>
-      <c r="C245" s="17"/>
-      <c r="D245" s="21"/>
-      <c r="E245" s="17"/>
-      <c r="F245" s="21"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="21"/>
-      <c r="I245" s="21"/>
-      <c r="J245" s="21"/>
-      <c r="K245" s="21"/>
-      <c r="L245" s="21"/>
-      <c r="M245" s="21"/>
-      <c r="N245" s="21"/>
-      <c r="O245" s="22"/>
-    </row>
-    <row r="246" ht="12.8" customHeight="1">
-      <c r="A246" s="20"/>
-      <c r="B246" s="21"/>
-      <c r="C246" s="17"/>
-      <c r="D246" s="21"/>
-      <c r="E246" s="17"/>
-      <c r="F246" s="21"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="21"/>
-      <c r="I246" s="21"/>
-      <c r="J246" s="21"/>
-      <c r="K246" s="21"/>
-      <c r="L246" s="21"/>
-      <c r="M246" s="21"/>
-      <c r="N246" s="21"/>
-      <c r="O246" s="22"/>
-    </row>
-    <row r="247" ht="12.8" customHeight="1">
-      <c r="A247" s="20"/>
-      <c r="B247" s="21"/>
-      <c r="C247" s="17"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="17"/>
-      <c r="F247" s="21"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="21"/>
-      <c r="J247" s="21"/>
-      <c r="K247" s="21"/>
-      <c r="L247" s="21"/>
-      <c r="M247" s="21"/>
-      <c r="N247" s="21"/>
-      <c r="O247" s="22"/>
-    </row>
-    <row r="248" ht="12.8" customHeight="1">
-      <c r="A248" s="20"/>
-      <c r="B248" s="21"/>
-      <c r="C248" s="17"/>
-      <c r="D248" s="21"/>
-      <c r="E248" s="17"/>
-      <c r="F248" s="21"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="21"/>
-      <c r="I248" s="21"/>
-      <c r="J248" s="21"/>
-      <c r="K248" s="21"/>
-      <c r="L248" s="21"/>
-      <c r="M248" s="21"/>
-      <c r="N248" s="21"/>
-      <c r="O248" s="22"/>
-    </row>
-    <row r="249" ht="12.8" customHeight="1">
-      <c r="A249" s="20"/>
-      <c r="B249" s="21"/>
-      <c r="C249" s="17"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="17"/>
-      <c r="F249" s="21"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="21"/>
-      <c r="I249" s="21"/>
-      <c r="J249" s="21"/>
-      <c r="K249" s="21"/>
-      <c r="L249" s="21"/>
-      <c r="M249" s="21"/>
-      <c r="N249" s="21"/>
-      <c r="O249" s="22"/>
-    </row>
-    <row r="250" ht="12.8" customHeight="1">
-      <c r="A250" s="20"/>
-      <c r="B250" s="21"/>
-      <c r="C250" s="17"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="17"/>
-      <c r="F250" s="21"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="21"/>
-      <c r="I250" s="21"/>
-      <c r="J250" s="21"/>
-      <c r="K250" s="21"/>
-      <c r="L250" s="21"/>
-      <c r="M250" s="21"/>
-      <c r="N250" s="21"/>
-      <c r="O250" s="22"/>
-    </row>
-    <row r="251" ht="12.8" customHeight="1">
-      <c r="A251" s="20"/>
-      <c r="B251" s="21"/>
-      <c r="C251" s="17"/>
-      <c r="D251" s="21"/>
-      <c r="E251" s="17"/>
-      <c r="F251" s="21"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="21"/>
-      <c r="I251" s="21"/>
-      <c r="J251" s="21"/>
-      <c r="K251" s="21"/>
-      <c r="L251" s="21"/>
-      <c r="M251" s="21"/>
-      <c r="N251" s="21"/>
-      <c r="O251" s="22"/>
-    </row>
-    <row r="252" ht="12.8" customHeight="1">
-      <c r="A252" s="20"/>
-      <c r="B252" s="21"/>
-      <c r="C252" s="17"/>
-      <c r="D252" s="21"/>
-      <c r="E252" s="17"/>
-      <c r="F252" s="21"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="21"/>
-      <c r="I252" s="21"/>
-      <c r="J252" s="21"/>
-      <c r="K252" s="21"/>
-      <c r="L252" s="21"/>
-      <c r="M252" s="21"/>
-      <c r="N252" s="21"/>
-      <c r="O252" s="22"/>
-    </row>
-    <row r="253" ht="12.8" customHeight="1">
-      <c r="A253" s="20"/>
-      <c r="B253" s="21"/>
-      <c r="C253" s="17"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="21"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="21"/>
-      <c r="I253" s="21"/>
-      <c r="J253" s="21"/>
-      <c r="K253" s="21"/>
-      <c r="L253" s="21"/>
-      <c r="M253" s="21"/>
-      <c r="N253" s="21"/>
-      <c r="O253" s="22"/>
-    </row>
-    <row r="254" ht="12.8" customHeight="1">
-      <c r="A254" s="20"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="17"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="17"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="21"/>
-      <c r="I254" s="21"/>
-      <c r="J254" s="21"/>
-      <c r="K254" s="21"/>
-      <c r="L254" s="21"/>
-      <c r="M254" s="21"/>
-      <c r="N254" s="21"/>
-      <c r="O254" s="22"/>
-    </row>
-    <row r="255" ht="12.8" customHeight="1">
-      <c r="A255" s="20"/>
-      <c r="B255" s="21"/>
-      <c r="C255" s="17"/>
-      <c r="D255" s="21"/>
-      <c r="E255" s="17"/>
-      <c r="F255" s="21"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="21"/>
-      <c r="I255" s="21"/>
-      <c r="J255" s="21"/>
-      <c r="K255" s="21"/>
-      <c r="L255" s="21"/>
-      <c r="M255" s="21"/>
-      <c r="N255" s="21"/>
-      <c r="O255" s="22"/>
-    </row>
-    <row r="256" ht="12.8" customHeight="1">
-      <c r="A256" s="20"/>
-      <c r="B256" s="21"/>
-      <c r="C256" s="17"/>
-      <c r="D256" s="21"/>
-      <c r="E256" s="17"/>
-      <c r="F256" s="21"/>
-      <c r="G256" s="17"/>
-      <c r="H256" s="21"/>
-      <c r="I256" s="21"/>
-      <c r="J256" s="21"/>
-      <c r="K256" s="21"/>
-      <c r="L256" s="21"/>
-      <c r="M256" s="21"/>
-      <c r="N256" s="21"/>
-      <c r="O256" s="22"/>
-    </row>
-    <row r="257" ht="12.8" customHeight="1">
-      <c r="A257" s="20"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="17"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="17"/>
-      <c r="F257" s="21"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="21"/>
-      <c r="I257" s="21"/>
-      <c r="J257" s="21"/>
-      <c r="K257" s="21"/>
-      <c r="L257" s="21"/>
-      <c r="M257" s="21"/>
-      <c r="N257" s="21"/>
-      <c r="O257" s="22"/>
-    </row>
-    <row r="258" ht="12.8" customHeight="1">
-      <c r="A258" s="20"/>
-      <c r="B258" s="21"/>
-      <c r="C258" s="17"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="17"/>
-      <c r="F258" s="21"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="21"/>
-      <c r="I258" s="21"/>
-      <c r="J258" s="21"/>
-      <c r="K258" s="21"/>
-      <c r="L258" s="21"/>
-      <c r="M258" s="21"/>
-      <c r="N258" s="21"/>
-      <c r="O258" s="22"/>
-    </row>
-    <row r="259" ht="12.8" customHeight="1">
-      <c r="A259" s="20"/>
-      <c r="B259" s="21"/>
-      <c r="C259" s="17"/>
-      <c r="D259" s="21"/>
-      <c r="E259" s="17"/>
-      <c r="F259" s="21"/>
-      <c r="G259" s="17"/>
-      <c r="H259" s="21"/>
-      <c r="I259" s="21"/>
-      <c r="J259" s="21"/>
-      <c r="K259" s="21"/>
-      <c r="L259" s="21"/>
-      <c r="M259" s="21"/>
-      <c r="N259" s="21"/>
-      <c r="O259" s="22"/>
-    </row>
-    <row r="260" ht="12.8" customHeight="1">
-      <c r="A260" s="20"/>
-      <c r="B260" s="21"/>
-      <c r="C260" s="17"/>
-      <c r="D260" s="21"/>
-      <c r="E260" s="17"/>
-      <c r="F260" s="21"/>
-      <c r="G260" s="17"/>
-      <c r="H260" s="21"/>
-      <c r="I260" s="21"/>
-      <c r="J260" s="21"/>
-      <c r="K260" s="21"/>
-      <c r="L260" s="21"/>
-      <c r="M260" s="21"/>
-      <c r="N260" s="21"/>
-      <c r="O260" s="22"/>
-    </row>
-    <row r="261" ht="12.8" customHeight="1">
-      <c r="A261" s="20"/>
-      <c r="B261" s="21"/>
-      <c r="C261" s="17"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="17"/>
-      <c r="F261" s="21"/>
-      <c r="G261" s="17"/>
-      <c r="H261" s="21"/>
-      <c r="I261" s="21"/>
-      <c r="J261" s="21"/>
-      <c r="K261" s="21"/>
-      <c r="L261" s="21"/>
-      <c r="M261" s="21"/>
-      <c r="N261" s="21"/>
-      <c r="O261" s="22"/>
-    </row>
-    <row r="262" ht="12.8" customHeight="1">
-      <c r="A262" s="20"/>
-      <c r="B262" s="21"/>
-      <c r="C262" s="17"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="17"/>
-      <c r="F262" s="21"/>
-      <c r="G262" s="17"/>
-      <c r="H262" s="21"/>
-      <c r="I262" s="21"/>
-      <c r="J262" s="21"/>
-      <c r="K262" s="21"/>
-      <c r="L262" s="21"/>
-      <c r="M262" s="21"/>
-      <c r="N262" s="21"/>
-      <c r="O262" s="22"/>
-    </row>
-    <row r="263" ht="12.8" customHeight="1">
-      <c r="A263" s="20"/>
-      <c r="B263" s="21"/>
-      <c r="C263" s="17"/>
-      <c r="D263" s="21"/>
-      <c r="E263" s="17"/>
-      <c r="F263" s="21"/>
-      <c r="G263" s="17"/>
-      <c r="H263" s="21"/>
-      <c r="I263" s="21"/>
-      <c r="J263" s="21"/>
-      <c r="K263" s="21"/>
-      <c r="L263" s="21"/>
-      <c r="M263" s="21"/>
-      <c r="N263" s="21"/>
-      <c r="O263" s="22"/>
-    </row>
-    <row r="264" ht="12.8" customHeight="1">
-      <c r="A264" s="20"/>
-      <c r="B264" s="21"/>
-      <c r="C264" s="17"/>
-      <c r="D264" s="21"/>
-      <c r="E264" s="17"/>
-      <c r="F264" s="21"/>
-      <c r="G264" s="17"/>
-      <c r="H264" s="21"/>
-      <c r="I264" s="21"/>
-      <c r="J264" s="21"/>
-      <c r="K264" s="21"/>
-      <c r="L264" s="21"/>
-      <c r="M264" s="21"/>
-      <c r="N264" s="21"/>
-      <c r="O264" s="22"/>
-    </row>
-    <row r="265" ht="12.8" customHeight="1">
-      <c r="A265" s="20"/>
-      <c r="B265" s="21"/>
-      <c r="C265" s="17"/>
-      <c r="D265" s="21"/>
-      <c r="E265" s="17"/>
-      <c r="F265" s="21"/>
-      <c r="G265" s="17"/>
-      <c r="H265" s="21"/>
-      <c r="I265" s="21"/>
-      <c r="J265" s="21"/>
-      <c r="K265" s="21"/>
-      <c r="L265" s="21"/>
-      <c r="M265" s="21"/>
-      <c r="N265" s="21"/>
-      <c r="O265" s="22"/>
-    </row>
-    <row r="266" ht="12.8" customHeight="1">
-      <c r="A266" s="20"/>
-      <c r="B266" s="21"/>
-      <c r="C266" s="17"/>
-      <c r="D266" s="21"/>
-      <c r="E266" s="17"/>
-      <c r="F266" s="21"/>
-      <c r="G266" s="17"/>
-      <c r="H266" s="21"/>
-      <c r="I266" s="21"/>
-      <c r="J266" s="21"/>
-      <c r="K266" s="21"/>
-      <c r="L266" s="21"/>
-      <c r="M266" s="21"/>
-      <c r="N266" s="21"/>
-      <c r="O266" s="22"/>
-    </row>
-    <row r="267" ht="12.8" customHeight="1">
-      <c r="A267" s="20"/>
-      <c r="B267" s="21"/>
-      <c r="C267" s="17"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="17"/>
-      <c r="F267" s="21"/>
-      <c r="G267" s="17"/>
-      <c r="H267" s="21"/>
-      <c r="I267" s="21"/>
-      <c r="J267" s="21"/>
-      <c r="K267" s="21"/>
-      <c r="L267" s="21"/>
-      <c r="M267" s="21"/>
-      <c r="N267" s="21"/>
-      <c r="O267" s="22"/>
-    </row>
-    <row r="268" ht="12.8" customHeight="1">
-      <c r="A268" s="20"/>
-      <c r="B268" s="21"/>
-      <c r="C268" s="17"/>
-      <c r="D268" s="21"/>
-      <c r="E268" s="17"/>
-      <c r="F268" s="21"/>
-      <c r="G268" s="17"/>
-      <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="21"/>
-      <c r="K268" s="21"/>
-      <c r="L268" s="21"/>
-      <c r="M268" s="21"/>
-      <c r="N268" s="21"/>
-      <c r="O268" s="22"/>
-    </row>
-    <row r="269" ht="12.8" customHeight="1">
-      <c r="A269" s="20"/>
-      <c r="B269" s="21"/>
-      <c r="C269" s="17"/>
-      <c r="D269" s="21"/>
-      <c r="E269" s="17"/>
-      <c r="F269" s="21"/>
-      <c r="G269" s="17"/>
-      <c r="H269" s="21"/>
-      <c r="I269" s="21"/>
-      <c r="J269" s="21"/>
-      <c r="K269" s="21"/>
-      <c r="L269" s="21"/>
-      <c r="M269" s="21"/>
-      <c r="N269" s="21"/>
-      <c r="O269" s="22"/>
-    </row>
-    <row r="270" ht="12.8" customHeight="1">
-      <c r="A270" s="20"/>
-      <c r="B270" s="21"/>
-      <c r="C270" s="17"/>
-      <c r="D270" s="21"/>
-      <c r="E270" s="17"/>
-      <c r="F270" s="21"/>
-      <c r="G270" s="17"/>
-      <c r="H270" s="21"/>
-      <c r="I270" s="21"/>
-      <c r="J270" s="21"/>
-      <c r="K270" s="21"/>
-      <c r="L270" s="21"/>
-      <c r="M270" s="21"/>
-      <c r="N270" s="21"/>
-      <c r="O270" s="22"/>
-    </row>
-    <row r="271" ht="12.8" customHeight="1">
-      <c r="A271" s="20"/>
-      <c r="B271" s="21"/>
-      <c r="C271" s="17"/>
-      <c r="D271" s="21"/>
-      <c r="E271" s="17"/>
-      <c r="F271" s="21"/>
-      <c r="G271" s="17"/>
-      <c r="H271" s="21"/>
-      <c r="I271" s="21"/>
-      <c r="J271" s="21"/>
-      <c r="K271" s="21"/>
-      <c r="L271" s="21"/>
-      <c r="M271" s="21"/>
-      <c r="N271" s="21"/>
-      <c r="O271" s="22"/>
-    </row>
-    <row r="272" ht="12.8" customHeight="1">
-      <c r="A272" s="20"/>
-      <c r="B272" s="21"/>
-      <c r="C272" s="17"/>
-      <c r="D272" s="21"/>
-      <c r="E272" s="17"/>
-      <c r="F272" s="21"/>
-      <c r="G272" s="17"/>
-      <c r="H272" s="21"/>
-      <c r="I272" s="21"/>
-      <c r="J272" s="21"/>
-      <c r="K272" s="21"/>
-      <c r="L272" s="21"/>
-      <c r="M272" s="21"/>
-      <c r="N272" s="21"/>
-      <c r="O272" s="22"/>
-    </row>
-    <row r="273" ht="12.8" customHeight="1">
-      <c r="A273" s="20"/>
-      <c r="B273" s="21"/>
-      <c r="C273" s="17"/>
-      <c r="D273" s="21"/>
-      <c r="E273" s="17"/>
-      <c r="F273" s="21"/>
-      <c r="G273" s="17"/>
-      <c r="H273" s="21"/>
-      <c r="I273" s="21"/>
-      <c r="J273" s="21"/>
-      <c r="K273" s="21"/>
-      <c r="L273" s="21"/>
-      <c r="M273" s="21"/>
-      <c r="N273" s="21"/>
-      <c r="O273" s="22"/>
-    </row>
-    <row r="274" ht="12.8" customHeight="1">
-      <c r="A274" s="20"/>
-      <c r="B274" s="21"/>
-      <c r="C274" s="17"/>
-      <c r="D274" s="21"/>
-      <c r="E274" s="17"/>
-      <c r="F274" s="21"/>
-      <c r="G274" s="17"/>
-      <c r="H274" s="21"/>
-      <c r="I274" s="21"/>
-      <c r="J274" s="21"/>
-      <c r="K274" s="21"/>
-      <c r="L274" s="21"/>
-      <c r="M274" s="21"/>
-      <c r="N274" s="21"/>
-      <c r="O274" s="22"/>
-    </row>
-    <row r="275" ht="12.8" customHeight="1">
-      <c r="A275" s="20"/>
-      <c r="B275" s="21"/>
-      <c r="C275" s="17"/>
-      <c r="D275" s="21"/>
-      <c r="E275" s="17"/>
-      <c r="F275" s="21"/>
-      <c r="G275" s="17"/>
-      <c r="H275" s="21"/>
-      <c r="I275" s="21"/>
-      <c r="J275" s="21"/>
-      <c r="K275" s="21"/>
-      <c r="L275" s="21"/>
-      <c r="M275" s="21"/>
-      <c r="N275" s="21"/>
-      <c r="O275" s="22"/>
-    </row>
-    <row r="276" ht="12.8" customHeight="1">
-      <c r="A276" s="20"/>
-      <c r="B276" s="21"/>
-      <c r="C276" s="17"/>
-      <c r="D276" s="21"/>
-      <c r="E276" s="17"/>
-      <c r="F276" s="21"/>
-      <c r="G276" s="17"/>
-      <c r="H276" s="21"/>
-      <c r="I276" s="21"/>
-      <c r="J276" s="21"/>
-      <c r="K276" s="21"/>
-      <c r="L276" s="21"/>
-      <c r="M276" s="21"/>
-      <c r="N276" s="21"/>
-      <c r="O276" s="22"/>
-    </row>
-    <row r="277" ht="12.8" customHeight="1">
-      <c r="A277" s="20"/>
-      <c r="B277" s="21"/>
-      <c r="C277" s="17"/>
-      <c r="D277" s="21"/>
-      <c r="E277" s="17"/>
-      <c r="F277" s="21"/>
-      <c r="G277" s="17"/>
-      <c r="H277" s="21"/>
-      <c r="I277" s="21"/>
-      <c r="J277" s="21"/>
-      <c r="K277" s="21"/>
-      <c r="L277" s="21"/>
-      <c r="M277" s="21"/>
-      <c r="N277" s="21"/>
-      <c r="O277" s="22"/>
-    </row>
-    <row r="278" ht="12.8" customHeight="1">
-      <c r="A278" s="20"/>
-      <c r="B278" s="21"/>
-      <c r="C278" s="17"/>
-      <c r="D278" s="21"/>
-      <c r="E278" s="17"/>
-      <c r="F278" s="21"/>
-      <c r="G278" s="17"/>
-      <c r="H278" s="21"/>
-      <c r="I278" s="21"/>
-      <c r="J278" s="21"/>
-      <c r="K278" s="21"/>
-      <c r="L278" s="21"/>
-      <c r="M278" s="21"/>
-      <c r="N278" s="21"/>
-      <c r="O278" s="22"/>
-    </row>
-    <row r="279" ht="12.8" customHeight="1">
-      <c r="A279" s="20"/>
-      <c r="B279" s="21"/>
-      <c r="C279" s="17"/>
-      <c r="D279" s="21"/>
-      <c r="E279" s="17"/>
-      <c r="F279" s="21"/>
-      <c r="G279" s="17"/>
-      <c r="H279" s="21"/>
-      <c r="I279" s="21"/>
-      <c r="J279" s="21"/>
-      <c r="K279" s="21"/>
-      <c r="L279" s="21"/>
-      <c r="M279" s="21"/>
-      <c r="N279" s="21"/>
-      <c r="O279" s="22"/>
-    </row>
-    <row r="280" ht="12.8" customHeight="1">
-      <c r="A280" s="20"/>
-      <c r="B280" s="21"/>
-      <c r="C280" s="17"/>
-      <c r="D280" s="21"/>
-      <c r="E280" s="17"/>
-      <c r="F280" s="21"/>
-      <c r="G280" s="17"/>
-      <c r="H280" s="21"/>
-      <c r="I280" s="21"/>
-      <c r="J280" s="21"/>
-      <c r="K280" s="21"/>
-      <c r="L280" s="21"/>
-      <c r="M280" s="21"/>
-      <c r="N280" s="21"/>
-      <c r="O280" s="22"/>
-    </row>
-    <row r="281" ht="12.8" customHeight="1">
-      <c r="A281" s="20"/>
-      <c r="B281" s="21"/>
-      <c r="C281" s="17"/>
-      <c r="D281" s="21"/>
-      <c r="E281" s="17"/>
-      <c r="F281" s="21"/>
-      <c r="G281" s="17"/>
-      <c r="H281" s="21"/>
-      <c r="I281" s="21"/>
-      <c r="J281" s="21"/>
-      <c r="K281" s="21"/>
-      <c r="L281" s="21"/>
-      <c r="M281" s="21"/>
-      <c r="N281" s="21"/>
-      <c r="O281" s="22"/>
-    </row>
-    <row r="282" ht="12.8" customHeight="1">
-      <c r="A282" s="20"/>
-      <c r="B282" s="21"/>
-      <c r="C282" s="17"/>
-      <c r="D282" s="21"/>
-      <c r="E282" s="17"/>
-      <c r="F282" s="21"/>
-      <c r="G282" s="17"/>
-      <c r="H282" s="21"/>
-      <c r="I282" s="21"/>
-      <c r="J282" s="21"/>
-      <c r="K282" s="21"/>
-      <c r="L282" s="21"/>
-      <c r="M282" s="21"/>
-      <c r="N282" s="21"/>
-      <c r="O282" s="22"/>
-    </row>
-    <row r="283" ht="12.8" customHeight="1">
-      <c r="A283" s="20"/>
-      <c r="B283" s="21"/>
-      <c r="C283" s="17"/>
-      <c r="D283" s="21"/>
-      <c r="E283" s="17"/>
-      <c r="F283" s="21"/>
-      <c r="G283" s="17"/>
-      <c r="H283" s="21"/>
-      <c r="I283" s="21"/>
-      <c r="J283" s="21"/>
-      <c r="K283" s="21"/>
-      <c r="L283" s="21"/>
-      <c r="M283" s="21"/>
-      <c r="N283" s="21"/>
-      <c r="O283" s="22"/>
-    </row>
-    <row r="284" ht="12.8" customHeight="1">
-      <c r="A284" s="20"/>
-      <c r="B284" s="21"/>
-      <c r="C284" s="17"/>
-      <c r="D284" s="21"/>
-      <c r="E284" s="17"/>
-      <c r="F284" s="21"/>
-      <c r="G284" s="17"/>
-      <c r="H284" s="21"/>
-      <c r="I284" s="21"/>
-      <c r="J284" s="21"/>
-      <c r="K284" s="21"/>
-      <c r="L284" s="21"/>
-      <c r="M284" s="21"/>
-      <c r="N284" s="21"/>
-      <c r="O284" s="22"/>
-    </row>
-    <row r="285" ht="12.8" customHeight="1">
-      <c r="A285" s="20"/>
-      <c r="B285" s="21"/>
-      <c r="C285" s="17"/>
-      <c r="D285" s="21"/>
-      <c r="E285" s="17"/>
-      <c r="F285" s="21"/>
-      <c r="G285" s="17"/>
-      <c r="H285" s="21"/>
-      <c r="I285" s="21"/>
-      <c r="J285" s="21"/>
-      <c r="K285" s="21"/>
-      <c r="L285" s="21"/>
-      <c r="M285" s="21"/>
-      <c r="N285" s="21"/>
-      <c r="O285" s="22"/>
-    </row>
-    <row r="286" ht="12.8" customHeight="1">
-      <c r="A286" s="20"/>
-      <c r="B286" s="21"/>
-      <c r="C286" s="17"/>
-      <c r="D286" s="21"/>
-      <c r="E286" s="17"/>
-      <c r="F286" s="21"/>
-      <c r="G286" s="17"/>
-      <c r="H286" s="21"/>
-      <c r="I286" s="21"/>
-      <c r="J286" s="21"/>
-      <c r="K286" s="21"/>
-      <c r="L286" s="21"/>
-      <c r="M286" s="21"/>
-      <c r="N286" s="21"/>
-      <c r="O286" s="22"/>
-    </row>
-    <row r="287" ht="12.8" customHeight="1">
-      <c r="A287" s="20"/>
-      <c r="B287" s="21"/>
-      <c r="C287" s="17"/>
-      <c r="D287" s="21"/>
-      <c r="E287" s="17"/>
-      <c r="F287" s="21"/>
-      <c r="G287" s="17"/>
-      <c r="H287" s="21"/>
-      <c r="I287" s="21"/>
-      <c r="J287" s="21"/>
-      <c r="K287" s="21"/>
-      <c r="L287" s="21"/>
-      <c r="M287" s="21"/>
-      <c r="N287" s="21"/>
-      <c r="O287" s="22"/>
-    </row>
-    <row r="288" ht="12.8" customHeight="1">
-      <c r="A288" s="20"/>
-      <c r="B288" s="21"/>
-      <c r="C288" s="17"/>
-      <c r="D288" s="21"/>
-      <c r="E288" s="17"/>
-      <c r="F288" s="21"/>
-      <c r="G288" s="17"/>
-      <c r="H288" s="21"/>
-      <c r="I288" s="21"/>
-      <c r="J288" s="21"/>
-      <c r="K288" s="21"/>
-      <c r="L288" s="21"/>
-      <c r="M288" s="21"/>
-      <c r="N288" s="21"/>
-      <c r="O288" s="22"/>
-    </row>
-    <row r="289" ht="12.8" customHeight="1">
-      <c r="A289" s="20"/>
-      <c r="B289" s="21"/>
-      <c r="C289" s="17"/>
-      <c r="D289" s="21"/>
-      <c r="E289" s="17"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="17"/>
-      <c r="H289" s="21"/>
-      <c r="I289" s="21"/>
-      <c r="J289" s="21"/>
-      <c r="K289" s="21"/>
-      <c r="L289" s="21"/>
-      <c r="M289" s="21"/>
-      <c r="N289" s="21"/>
-      <c r="O289" s="22"/>
-    </row>
-    <row r="290" ht="12.8" customHeight="1">
-      <c r="A290" s="20"/>
-      <c r="B290" s="21"/>
-      <c r="C290" s="17"/>
-      <c r="D290" s="21"/>
-      <c r="E290" s="17"/>
-      <c r="F290" s="21"/>
-      <c r="G290" s="17"/>
-      <c r="H290" s="21"/>
-      <c r="I290" s="21"/>
-      <c r="J290" s="21"/>
-      <c r="K290" s="21"/>
-      <c r="L290" s="21"/>
-      <c r="M290" s="21"/>
-      <c r="N290" s="21"/>
-      <c r="O290" s="22"/>
-    </row>
-    <row r="291" ht="12.8" customHeight="1">
-      <c r="A291" s="20"/>
-      <c r="B291" s="21"/>
-      <c r="C291" s="17"/>
-      <c r="D291" s="21"/>
-      <c r="E291" s="17"/>
-      <c r="F291" s="21"/>
-      <c r="G291" s="17"/>
-      <c r="H291" s="21"/>
-      <c r="I291" s="21"/>
-      <c r="J291" s="21"/>
-      <c r="K291" s="21"/>
-      <c r="L291" s="21"/>
-      <c r="M291" s="21"/>
-      <c r="N291" s="21"/>
-      <c r="O291" s="22"/>
-    </row>
-    <row r="292" ht="12.8" customHeight="1">
-      <c r="A292" s="20"/>
-      <c r="B292" s="21"/>
-      <c r="C292" s="17"/>
-      <c r="D292" s="21"/>
-      <c r="E292" s="17"/>
-      <c r="F292" s="21"/>
-      <c r="G292" s="17"/>
-      <c r="H292" s="21"/>
-      <c r="I292" s="21"/>
-      <c r="J292" s="21"/>
-      <c r="K292" s="21"/>
-      <c r="L292" s="21"/>
-      <c r="M292" s="21"/>
-      <c r="N292" s="21"/>
-      <c r="O292" s="22"/>
-    </row>
-    <row r="293" ht="12.8" customHeight="1">
-      <c r="A293" s="20"/>
-      <c r="B293" s="21"/>
-      <c r="C293" s="17"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="17"/>
-      <c r="F293" s="21"/>
-      <c r="G293" s="17"/>
-      <c r="H293" s="21"/>
-      <c r="I293" s="21"/>
-      <c r="J293" s="21"/>
-      <c r="K293" s="21"/>
-      <c r="L293" s="21"/>
-      <c r="M293" s="21"/>
-      <c r="N293" s="21"/>
-      <c r="O293" s="22"/>
-    </row>
-    <row r="294" ht="12.8" customHeight="1">
-      <c r="A294" s="20"/>
-      <c r="B294" s="21"/>
-      <c r="C294" s="17"/>
-      <c r="D294" s="21"/>
-      <c r="E294" s="17"/>
-      <c r="F294" s="21"/>
-      <c r="G294" s="17"/>
-      <c r="H294" s="21"/>
-      <c r="I294" s="21"/>
-      <c r="J294" s="21"/>
-      <c r="K294" s="21"/>
-      <c r="L294" s="21"/>
-      <c r="M294" s="21"/>
-      <c r="N294" s="21"/>
-      <c r="O294" s="22"/>
-    </row>
-    <row r="295" ht="12.8" customHeight="1">
-      <c r="A295" s="20"/>
-      <c r="B295" s="21"/>
-      <c r="C295" s="17"/>
-      <c r="D295" s="21"/>
-      <c r="E295" s="17"/>
-      <c r="F295" s="21"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="21"/>
-      <c r="I295" s="21"/>
-      <c r="J295" s="21"/>
-      <c r="K295" s="21"/>
-      <c r="L295" s="21"/>
-      <c r="M295" s="21"/>
-      <c r="N295" s="21"/>
-      <c r="O295" s="22"/>
-    </row>
-    <row r="296" ht="12.8" customHeight="1">
-      <c r="A296" s="20"/>
-      <c r="B296" s="21"/>
-      <c r="C296" s="17"/>
-      <c r="D296" s="21"/>
-      <c r="E296" s="17"/>
-      <c r="F296" s="21"/>
-      <c r="G296" s="17"/>
-      <c r="H296" s="21"/>
-      <c r="I296" s="21"/>
-      <c r="J296" s="21"/>
-      <c r="K296" s="21"/>
-      <c r="L296" s="21"/>
-      <c r="M296" s="21"/>
-      <c r="N296" s="21"/>
-      <c r="O296" s="22"/>
-    </row>
-    <row r="297" ht="12.8" customHeight="1">
-      <c r="A297" s="20"/>
-      <c r="B297" s="21"/>
-      <c r="C297" s="17"/>
-      <c r="D297" s="21"/>
-      <c r="E297" s="17"/>
-      <c r="F297" s="21"/>
-      <c r="G297" s="17"/>
-      <c r="H297" s="21"/>
-      <c r="I297" s="21"/>
-      <c r="J297" s="21"/>
-      <c r="K297" s="21"/>
-      <c r="L297" s="21"/>
-      <c r="M297" s="21"/>
-      <c r="N297" s="21"/>
-      <c r="O297" s="22"/>
-    </row>
-    <row r="298" ht="12.8" customHeight="1">
-      <c r="A298" s="20"/>
-      <c r="B298" s="21"/>
-      <c r="C298" s="17"/>
-      <c r="D298" s="21"/>
-      <c r="E298" s="17"/>
-      <c r="F298" s="21"/>
-      <c r="G298" s="17"/>
-      <c r="H298" s="21"/>
-      <c r="I298" s="21"/>
-      <c r="J298" s="21"/>
-      <c r="K298" s="21"/>
-      <c r="L298" s="21"/>
-      <c r="M298" s="21"/>
-      <c r="N298" s="21"/>
-      <c r="O298" s="22"/>
-    </row>
-    <row r="299" ht="12.8" customHeight="1">
-      <c r="A299" s="20"/>
-      <c r="B299" s="21"/>
-      <c r="C299" s="17"/>
-      <c r="D299" s="21"/>
-      <c r="E299" s="17"/>
-      <c r="F299" s="21"/>
-      <c r="G299" s="17"/>
-      <c r="H299" s="21"/>
-      <c r="I299" s="21"/>
-      <c r="J299" s="21"/>
-      <c r="K299" s="21"/>
-      <c r="L299" s="21"/>
-      <c r="M299" s="21"/>
-      <c r="N299" s="21"/>
-      <c r="O299" s="22"/>
-    </row>
-    <row r="300" ht="12.8" customHeight="1">
-      <c r="A300" s="20"/>
-      <c r="B300" s="21"/>
-      <c r="C300" s="17"/>
-      <c r="D300" s="21"/>
-      <c r="E300" s="17"/>
-      <c r="F300" s="21"/>
-      <c r="G300" s="17"/>
-      <c r="H300" s="21"/>
-      <c r="I300" s="21"/>
-      <c r="J300" s="21"/>
-      <c r="K300" s="21"/>
-      <c r="L300" s="21"/>
-      <c r="M300" s="21"/>
-      <c r="N300" s="21"/>
-      <c r="O300" s="22"/>
-    </row>
-    <row r="301" ht="12.8" customHeight="1">
-      <c r="A301" s="20"/>
-      <c r="B301" s="21"/>
-      <c r="C301" s="17"/>
-      <c r="D301" s="21"/>
-      <c r="E301" s="17"/>
-      <c r="F301" s="21"/>
-      <c r="G301" s="17"/>
-      <c r="H301" s="21"/>
-      <c r="I301" s="21"/>
-      <c r="J301" s="21"/>
-      <c r="K301" s="21"/>
-      <c r="L301" s="21"/>
-      <c r="M301" s="21"/>
-      <c r="N301" s="21"/>
-      <c r="O301" s="22"/>
-    </row>
-    <row r="302" ht="12.8" customHeight="1">
-      <c r="A302" s="20"/>
-      <c r="B302" s="21"/>
-      <c r="C302" s="17"/>
-      <c r="D302" s="21"/>
-      <c r="E302" s="17"/>
-      <c r="F302" s="21"/>
-      <c r="G302" s="17"/>
-      <c r="H302" s="21"/>
-      <c r="I302" s="21"/>
-      <c r="J302" s="21"/>
-      <c r="K302" s="21"/>
-      <c r="L302" s="21"/>
-      <c r="M302" s="21"/>
-      <c r="N302" s="21"/>
-      <c r="O302" s="22"/>
-    </row>
-    <row r="303" ht="12.8" customHeight="1">
-      <c r="A303" s="20"/>
-      <c r="B303" s="21"/>
-      <c r="C303" s="17"/>
-      <c r="D303" s="21"/>
-      <c r="E303" s="17"/>
-      <c r="F303" s="21"/>
-      <c r="G303" s="17"/>
-      <c r="H303" s="21"/>
-      <c r="I303" s="21"/>
-      <c r="J303" s="21"/>
-      <c r="K303" s="21"/>
-      <c r="L303" s="21"/>
-      <c r="M303" s="21"/>
-      <c r="N303" s="21"/>
-      <c r="O303" s="22"/>
-    </row>
-    <row r="304" ht="12.8" customHeight="1">
-      <c r="A304" s="20"/>
-      <c r="B304" s="21"/>
-      <c r="C304" s="17"/>
-      <c r="D304" s="21"/>
-      <c r="E304" s="17"/>
-      <c r="F304" s="21"/>
-      <c r="G304" s="17"/>
-      <c r="H304" s="21"/>
-      <c r="I304" s="21"/>
-      <c r="J304" s="21"/>
-      <c r="K304" s="21"/>
-      <c r="L304" s="21"/>
-      <c r="M304" s="21"/>
-      <c r="N304" s="21"/>
-      <c r="O304" s="22"/>
-    </row>
-    <row r="305" ht="12.8" customHeight="1">
-      <c r="A305" s="20"/>
-      <c r="B305" s="21"/>
-      <c r="C305" s="17"/>
-      <c r="D305" s="21"/>
-      <c r="E305" s="17"/>
-      <c r="F305" s="21"/>
-      <c r="G305" s="17"/>
-      <c r="H305" s="21"/>
-      <c r="I305" s="21"/>
-      <c r="J305" s="21"/>
-      <c r="K305" s="21"/>
-      <c r="L305" s="21"/>
-      <c r="M305" s="21"/>
-      <c r="N305" s="21"/>
-      <c r="O305" s="22"/>
-    </row>
-    <row r="306" ht="12.8" customHeight="1">
-      <c r="A306" s="20"/>
-      <c r="B306" s="21"/>
-      <c r="C306" s="17"/>
-      <c r="D306" s="21"/>
-      <c r="E306" s="17"/>
-      <c r="F306" s="21"/>
-      <c r="G306" s="17"/>
-      <c r="H306" s="21"/>
-      <c r="I306" s="21"/>
-      <c r="J306" s="21"/>
-      <c r="K306" s="21"/>
-      <c r="L306" s="21"/>
-      <c r="M306" s="21"/>
-      <c r="N306" s="21"/>
-      <c r="O306" s="22"/>
-    </row>
-    <row r="307" ht="12.8" customHeight="1">
-      <c r="A307" s="20"/>
-      <c r="B307" s="21"/>
-      <c r="C307" s="17"/>
-      <c r="D307" s="21"/>
-      <c r="E307" s="17"/>
-      <c r="F307" s="21"/>
-      <c r="G307" s="17"/>
-      <c r="H307" s="21"/>
-      <c r="I307" s="21"/>
-      <c r="J307" s="21"/>
-      <c r="K307" s="21"/>
-      <c r="L307" s="21"/>
-      <c r="M307" s="21"/>
-      <c r="N307" s="21"/>
-      <c r="O307" s="22"/>
-    </row>
-    <row r="308" ht="12.8" customHeight="1">
-      <c r="A308" s="20"/>
-      <c r="B308" s="21"/>
-      <c r="C308" s="17"/>
-      <c r="D308" s="21"/>
-      <c r="E308" s="17"/>
-      <c r="F308" s="21"/>
-      <c r="G308" s="17"/>
-      <c r="H308" s="21"/>
-      <c r="I308" s="21"/>
-      <c r="J308" s="21"/>
-      <c r="K308" s="21"/>
-      <c r="L308" s="21"/>
-      <c r="M308" s="21"/>
-      <c r="N308" s="21"/>
-      <c r="O308" s="22"/>
-    </row>
-    <row r="309" ht="12.8" customHeight="1">
-      <c r="A309" s="20"/>
-      <c r="B309" s="21"/>
-      <c r="C309" s="17"/>
-      <c r="D309" s="21"/>
-      <c r="E309" s="17"/>
-      <c r="F309" s="21"/>
-      <c r="G309" s="17"/>
-      <c r="H309" s="21"/>
-      <c r="I309" s="21"/>
-      <c r="J309" s="21"/>
-      <c r="K309" s="21"/>
-      <c r="L309" s="21"/>
-      <c r="M309" s="21"/>
-      <c r="N309" s="21"/>
-      <c r="O309" s="22"/>
-    </row>
-    <row r="310" ht="12.8" customHeight="1">
-      <c r="A310" s="20"/>
-      <c r="B310" s="21"/>
-      <c r="C310" s="17"/>
-      <c r="D310" s="21"/>
-      <c r="E310" s="17"/>
-      <c r="F310" s="21"/>
-      <c r="G310" s="17"/>
-      <c r="H310" s="21"/>
-      <c r="I310" s="21"/>
-      <c r="J310" s="21"/>
-      <c r="K310" s="21"/>
-      <c r="L310" s="21"/>
-      <c r="M310" s="21"/>
-      <c r="N310" s="21"/>
-      <c r="O310" s="22"/>
-    </row>
-    <row r="311" ht="12.8" customHeight="1">
-      <c r="A311" s="20"/>
-      <c r="B311" s="21"/>
-      <c r="C311" s="17"/>
-      <c r="D311" s="21"/>
-      <c r="E311" s="17"/>
-      <c r="F311" s="21"/>
-      <c r="G311" s="17"/>
-      <c r="H311" s="21"/>
-      <c r="I311" s="21"/>
-      <c r="J311" s="21"/>
-      <c r="K311" s="21"/>
-      <c r="L311" s="21"/>
-      <c r="M311" s="21"/>
-      <c r="N311" s="21"/>
-      <c r="O311" s="22"/>
-    </row>
-    <row r="312" ht="12.8" customHeight="1">
-      <c r="A312" s="20"/>
-      <c r="B312" s="21"/>
-      <c r="C312" s="17"/>
-      <c r="D312" s="21"/>
-      <c r="E312" s="17"/>
-      <c r="F312" s="21"/>
-      <c r="G312" s="17"/>
-      <c r="H312" s="21"/>
-      <c r="I312" s="21"/>
-      <c r="J312" s="21"/>
-      <c r="K312" s="21"/>
-      <c r="L312" s="21"/>
-      <c r="M312" s="21"/>
-      <c r="N312" s="21"/>
-      <c r="O312" s="22"/>
-    </row>
-    <row r="313" ht="12.8" customHeight="1">
-      <c r="A313" s="20"/>
-      <c r="B313" s="21"/>
-      <c r="C313" s="17"/>
-      <c r="D313" s="21"/>
-      <c r="E313" s="17"/>
-      <c r="F313" s="21"/>
-      <c r="G313" s="17"/>
-      <c r="H313" s="21"/>
-      <c r="I313" s="21"/>
-      <c r="J313" s="21"/>
-      <c r="K313" s="21"/>
-      <c r="L313" s="21"/>
-      <c r="M313" s="21"/>
-      <c r="N313" s="21"/>
-      <c r="O313" s="22"/>
-    </row>
-    <row r="314" ht="12.8" customHeight="1">
-      <c r="A314" s="20"/>
-      <c r="B314" s="21"/>
-      <c r="C314" s="17"/>
-      <c r="D314" s="21"/>
-      <c r="E314" s="17"/>
-      <c r="F314" s="21"/>
-      <c r="G314" s="17"/>
-      <c r="H314" s="21"/>
-      <c r="I314" s="21"/>
-      <c r="J314" s="21"/>
-      <c r="K314" s="21"/>
-      <c r="L314" s="21"/>
-      <c r="M314" s="21"/>
-      <c r="N314" s="21"/>
-      <c r="O314" s="22"/>
-    </row>
-    <row r="315" ht="12.8" customHeight="1">
-      <c r="A315" s="20"/>
-      <c r="B315" s="21"/>
-      <c r="C315" s="17"/>
-      <c r="D315" s="21"/>
-      <c r="E315" s="17"/>
-      <c r="F315" s="21"/>
-      <c r="G315" s="17"/>
-      <c r="H315" s="21"/>
-      <c r="I315" s="21"/>
-      <c r="J315" s="21"/>
-      <c r="K315" s="21"/>
-      <c r="L315" s="21"/>
-      <c r="M315" s="21"/>
-      <c r="N315" s="21"/>
-      <c r="O315" s="22"/>
-    </row>
-    <row r="316" ht="12.8" customHeight="1">
-      <c r="A316" s="20"/>
-      <c r="B316" s="21"/>
-      <c r="C316" s="17"/>
-      <c r="D316" s="21"/>
-      <c r="E316" s="17"/>
-      <c r="F316" s="21"/>
-      <c r="G316" s="17"/>
-      <c r="H316" s="21"/>
-      <c r="I316" s="21"/>
-      <c r="J316" s="21"/>
-      <c r="K316" s="21"/>
-      <c r="L316" s="21"/>
-      <c r="M316" s="21"/>
-      <c r="N316" s="21"/>
-      <c r="O316" s="22"/>
-    </row>
-    <row r="317" ht="12.8" customHeight="1">
-      <c r="A317" s="20"/>
-      <c r="B317" s="21"/>
-      <c r="C317" s="17"/>
-      <c r="D317" s="21"/>
-      <c r="E317" s="17"/>
-      <c r="F317" s="21"/>
-      <c r="G317" s="17"/>
-      <c r="H317" s="21"/>
-      <c r="I317" s="21"/>
-      <c r="J317" s="21"/>
-      <c r="K317" s="21"/>
-      <c r="L317" s="21"/>
-      <c r="M317" s="21"/>
-      <c r="N317" s="21"/>
-      <c r="O317" s="22"/>
-    </row>
-    <row r="318" ht="12.8" customHeight="1">
-      <c r="A318" s="20"/>
-      <c r="B318" s="21"/>
-      <c r="C318" s="17"/>
-      <c r="D318" s="21"/>
-      <c r="E318" s="17"/>
-      <c r="F318" s="21"/>
-      <c r="G318" s="17"/>
-      <c r="H318" s="21"/>
-      <c r="I318" s="21"/>
-      <c r="J318" s="21"/>
-      <c r="K318" s="21"/>
-      <c r="L318" s="21"/>
-      <c r="M318" s="21"/>
-      <c r="N318" s="21"/>
-      <c r="O318" s="22"/>
-    </row>
-    <row r="319" ht="12.8" customHeight="1">
-      <c r="A319" s="20"/>
-      <c r="B319" s="21"/>
-      <c r="C319" s="17"/>
-      <c r="D319" s="21"/>
-      <c r="E319" s="17"/>
-      <c r="F319" s="21"/>
-      <c r="G319" s="17"/>
-      <c r="H319" s="21"/>
-      <c r="I319" s="21"/>
-      <c r="J319" s="21"/>
-      <c r="K319" s="21"/>
-      <c r="L319" s="21"/>
-      <c r="M319" s="21"/>
-      <c r="N319" s="21"/>
-      <c r="O319" s="22"/>
-    </row>
-    <row r="320" ht="12.8" customHeight="1">
-      <c r="A320" s="20"/>
-      <c r="B320" s="21"/>
-      <c r="C320" s="17"/>
-      <c r="D320" s="21"/>
-      <c r="E320" s="17"/>
-      <c r="F320" s="21"/>
-      <c r="G320" s="17"/>
-      <c r="H320" s="21"/>
-      <c r="I320" s="21"/>
-      <c r="J320" s="21"/>
-      <c r="K320" s="21"/>
-      <c r="L320" s="21"/>
-      <c r="M320" s="21"/>
-      <c r="N320" s="21"/>
-      <c r="O320" s="22"/>
-    </row>
-    <row r="321" ht="12.8" customHeight="1">
-      <c r="A321" s="20"/>
-      <c r="B321" s="21"/>
-      <c r="C321" s="17"/>
-      <c r="D321" s="21"/>
-      <c r="E321" s="17"/>
-      <c r="F321" s="21"/>
-      <c r="G321" s="17"/>
-      <c r="H321" s="21"/>
-      <c r="I321" s="21"/>
-      <c r="J321" s="21"/>
-      <c r="K321" s="21"/>
-      <c r="L321" s="21"/>
-      <c r="M321" s="21"/>
-      <c r="N321" s="21"/>
-      <c r="O321" s="22"/>
-    </row>
-    <row r="322" ht="12.8" customHeight="1">
-      <c r="A322" s="20"/>
-      <c r="B322" s="21"/>
-      <c r="C322" s="17"/>
-      <c r="D322" s="21"/>
-      <c r="E322" s="17"/>
-      <c r="F322" s="21"/>
-      <c r="G322" s="17"/>
-      <c r="H322" s="21"/>
-      <c r="I322" s="21"/>
-      <c r="J322" s="21"/>
-      <c r="K322" s="21"/>
-      <c r="L322" s="21"/>
-      <c r="M322" s="21"/>
-      <c r="N322" s="21"/>
-      <c r="O322" s="22"/>
-    </row>
-    <row r="323" ht="12.8" customHeight="1">
-      <c r="A323" s="20"/>
-      <c r="B323" s="21"/>
-      <c r="C323" s="17"/>
-      <c r="D323" s="21"/>
-      <c r="E323" s="17"/>
-      <c r="F323" s="21"/>
-      <c r="G323" s="17"/>
-      <c r="H323" s="21"/>
-      <c r="I323" s="21"/>
-      <c r="J323" s="21"/>
-      <c r="K323" s="21"/>
-      <c r="L323" s="21"/>
-      <c r="M323" s="21"/>
-      <c r="N323" s="21"/>
-      <c r="O323" s="22"/>
-    </row>
-    <row r="324" ht="12.8" customHeight="1">
-      <c r="A324" s="20"/>
-      <c r="B324" s="21"/>
-      <c r="C324" s="17"/>
-      <c r="D324" s="21"/>
-      <c r="E324" s="17"/>
-      <c r="F324" s="21"/>
-      <c r="G324" s="17"/>
-      <c r="H324" s="21"/>
-      <c r="I324" s="21"/>
-      <c r="J324" s="21"/>
-      <c r="K324" s="21"/>
-      <c r="L324" s="21"/>
-      <c r="M324" s="21"/>
-      <c r="N324" s="21"/>
-      <c r="O324" s="22"/>
-    </row>
-    <row r="325" ht="12.8" customHeight="1">
-      <c r="A325" s="20"/>
-      <c r="B325" s="21"/>
-      <c r="C325" s="17"/>
-      <c r="D325" s="21"/>
-      <c r="E325" s="17"/>
-      <c r="F325" s="21"/>
-      <c r="G325" s="17"/>
-      <c r="H325" s="21"/>
-      <c r="I325" s="21"/>
-      <c r="J325" s="21"/>
-      <c r="K325" s="21"/>
-      <c r="L325" s="21"/>
-      <c r="M325" s="21"/>
-      <c r="N325" s="21"/>
-      <c r="O325" s="22"/>
-    </row>
-    <row r="326" ht="12.8" customHeight="1">
-      <c r="A326" s="20"/>
-      <c r="B326" s="21"/>
-      <c r="C326" s="17"/>
-      <c r="D326" s="21"/>
-      <c r="E326" s="17"/>
-      <c r="F326" s="21"/>
-      <c r="G326" s="17"/>
-      <c r="H326" s="21"/>
-      <c r="I326" s="21"/>
-      <c r="J326" s="21"/>
-      <c r="K326" s="21"/>
-      <c r="L326" s="21"/>
-      <c r="M326" s="21"/>
-      <c r="N326" s="21"/>
-      <c r="O326" s="22"/>
-    </row>
-    <row r="327" ht="12.8" customHeight="1">
-      <c r="A327" s="20"/>
-      <c r="B327" s="21"/>
-      <c r="C327" s="17"/>
-      <c r="D327" s="21"/>
-      <c r="E327" s="17"/>
-      <c r="F327" s="21"/>
-      <c r="G327" s="17"/>
-      <c r="H327" s="21"/>
-      <c r="I327" s="21"/>
-      <c r="J327" s="21"/>
-      <c r="K327" s="21"/>
-      <c r="L327" s="21"/>
-      <c r="M327" s="21"/>
-      <c r="N327" s="21"/>
-      <c r="O327" s="22"/>
-    </row>
-    <row r="328" ht="12.8" customHeight="1">
-      <c r="A328" s="20"/>
-      <c r="B328" s="21"/>
-      <c r="C328" s="17"/>
-      <c r="D328" s="21"/>
-      <c r="E328" s="17"/>
-      <c r="F328" s="21"/>
-      <c r="G328" s="17"/>
-      <c r="H328" s="21"/>
-      <c r="I328" s="21"/>
-      <c r="J328" s="21"/>
-      <c r="K328" s="21"/>
-      <c r="L328" s="21"/>
-      <c r="M328" s="21"/>
-      <c r="N328" s="21"/>
-      <c r="O328" s="22"/>
-    </row>
-    <row r="329" ht="12.8" customHeight="1">
-      <c r="A329" s="20"/>
-      <c r="B329" s="21"/>
-      <c r="C329" s="17"/>
-      <c r="D329" s="21"/>
-      <c r="E329" s="17"/>
-      <c r="F329" s="21"/>
-      <c r="G329" s="17"/>
-      <c r="H329" s="21"/>
-      <c r="I329" s="21"/>
-      <c r="J329" s="21"/>
-      <c r="K329" s="21"/>
-      <c r="L329" s="21"/>
-      <c r="M329" s="21"/>
-      <c r="N329" s="21"/>
-      <c r="O329" s="22"/>
-    </row>
-    <row r="330" ht="12.8" customHeight="1">
-      <c r="A330" s="20"/>
-      <c r="B330" s="21"/>
-      <c r="C330" s="17"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="17"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="17"/>
-      <c r="H330" s="21"/>
-      <c r="I330" s="21"/>
-      <c r="J330" s="21"/>
-      <c r="K330" s="21"/>
-      <c r="L330" s="21"/>
-      <c r="M330" s="21"/>
-      <c r="N330" s="21"/>
-      <c r="O330" s="22"/>
-    </row>
-    <row r="331" ht="12.8" customHeight="1">
-      <c r="A331" s="20"/>
-      <c r="B331" s="21"/>
-      <c r="C331" s="17"/>
-      <c r="D331" s="21"/>
-      <c r="E331" s="17"/>
-      <c r="F331" s="21"/>
-      <c r="G331" s="17"/>
-      <c r="H331" s="21"/>
-      <c r="I331" s="21"/>
-      <c r="J331" s="21"/>
-      <c r="K331" s="21"/>
-      <c r="L331" s="21"/>
-      <c r="M331" s="21"/>
-      <c r="N331" s="21"/>
-      <c r="O331" s="22"/>
-    </row>
-    <row r="332" ht="12.8" customHeight="1">
-      <c r="A332" s="20"/>
-      <c r="B332" s="21"/>
-      <c r="C332" s="17"/>
-      <c r="D332" s="21"/>
-      <c r="E332" s="17"/>
-      <c r="F332" s="21"/>
-      <c r="G332" s="17"/>
-      <c r="H332" s="21"/>
-      <c r="I332" s="21"/>
-      <c r="J332" s="21"/>
-      <c r="K332" s="21"/>
-      <c r="L332" s="21"/>
-      <c r="M332" s="21"/>
-      <c r="N332" s="21"/>
-      <c r="O332" s="22"/>
-    </row>
-    <row r="333" ht="12.8" customHeight="1">
-      <c r="A333" s="20"/>
-      <c r="B333" s="21"/>
-      <c r="C333" s="17"/>
-      <c r="D333" s="21"/>
-      <c r="E333" s="17"/>
-      <c r="F333" s="21"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="21"/>
-      <c r="I333" s="21"/>
-      <c r="J333" s="21"/>
-      <c r="K333" s="21"/>
-      <c r="L333" s="21"/>
-      <c r="M333" s="21"/>
-      <c r="N333" s="21"/>
-      <c r="O333" s="22"/>
-    </row>
-    <row r="334" ht="12.8" customHeight="1">
-      <c r="A334" s="20"/>
-      <c r="B334" s="21"/>
-      <c r="C334" s="17"/>
-      <c r="D334" s="21"/>
-      <c r="E334" s="17"/>
-      <c r="F334" s="21"/>
-      <c r="G334" s="17"/>
-      <c r="H334" s="21"/>
-      <c r="I334" s="21"/>
-      <c r="J334" s="21"/>
-      <c r="K334" s="21"/>
-      <c r="L334" s="21"/>
-      <c r="M334" s="21"/>
-      <c r="N334" s="21"/>
-      <c r="O334" s="22"/>
-    </row>
-    <row r="335" ht="12.8" customHeight="1">
-      <c r="A335" s="20"/>
-      <c r="B335" s="21"/>
-      <c r="C335" s="17"/>
-      <c r="D335" s="21"/>
-      <c r="E335" s="17"/>
-      <c r="F335" s="21"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="21"/>
-      <c r="I335" s="21"/>
-      <c r="J335" s="21"/>
-      <c r="K335" s="21"/>
-      <c r="L335" s="21"/>
-      <c r="M335" s="21"/>
-      <c r="N335" s="21"/>
-      <c r="O335" s="22"/>
-    </row>
-    <row r="336" ht="12.8" customHeight="1">
-      <c r="A336" s="20"/>
-      <c r="B336" s="21"/>
-      <c r="C336" s="17"/>
-      <c r="D336" s="21"/>
-      <c r="E336" s="17"/>
-      <c r="F336" s="21"/>
-      <c r="G336" s="17"/>
-      <c r="H336" s="21"/>
-      <c r="I336" s="21"/>
-      <c r="J336" s="21"/>
-      <c r="K336" s="21"/>
-      <c r="L336" s="21"/>
-      <c r="M336" s="21"/>
-      <c r="N336" s="21"/>
-      <c r="O336" s="22"/>
-    </row>
-    <row r="337" ht="12.8" customHeight="1">
-      <c r="A337" s="20"/>
-      <c r="B337" s="21"/>
-      <c r="C337" s="17"/>
-      <c r="D337" s="21"/>
-      <c r="E337" s="17"/>
-      <c r="F337" s="21"/>
-      <c r="G337" s="17"/>
-      <c r="H337" s="21"/>
-      <c r="I337" s="21"/>
-      <c r="J337" s="21"/>
-      <c r="K337" s="21"/>
-      <c r="L337" s="21"/>
-      <c r="M337" s="21"/>
-      <c r="N337" s="21"/>
-      <c r="O337" s="22"/>
-    </row>
-    <row r="338" ht="12.8" customHeight="1">
-      <c r="A338" s="20"/>
-      <c r="B338" s="21"/>
-      <c r="C338" s="17"/>
-      <c r="D338" s="21"/>
-      <c r="E338" s="17"/>
-      <c r="F338" s="21"/>
-      <c r="G338" s="17"/>
-      <c r="H338" s="21"/>
-      <c r="I338" s="21"/>
-      <c r="J338" s="21"/>
-      <c r="K338" s="21"/>
-      <c r="L338" s="21"/>
-      <c r="M338" s="21"/>
-      <c r="N338" s="21"/>
-      <c r="O338" s="22"/>
-    </row>
-    <row r="339" ht="12.8" customHeight="1">
-      <c r="A339" s="20"/>
-      <c r="B339" s="21"/>
-      <c r="C339" s="17"/>
-      <c r="D339" s="21"/>
-      <c r="E339" s="17"/>
-      <c r="F339" s="21"/>
-      <c r="G339" s="17"/>
-      <c r="H339" s="21"/>
-      <c r="I339" s="21"/>
-      <c r="J339" s="21"/>
-      <c r="K339" s="21"/>
-      <c r="L339" s="21"/>
-      <c r="M339" s="21"/>
-      <c r="N339" s="21"/>
-      <c r="O339" s="22"/>
-    </row>
-    <row r="340" ht="12.8" customHeight="1">
-      <c r="A340" s="20"/>
-      <c r="B340" s="21"/>
-      <c r="C340" s="17"/>
-      <c r="D340" s="21"/>
-      <c r="E340" s="17"/>
-      <c r="F340" s="21"/>
-      <c r="G340" s="17"/>
-      <c r="H340" s="21"/>
-      <c r="I340" s="21"/>
-      <c r="J340" s="21"/>
-      <c r="K340" s="21"/>
-      <c r="L340" s="21"/>
-      <c r="M340" s="21"/>
-      <c r="N340" s="21"/>
-      <c r="O340" s="22"/>
-    </row>
-    <row r="341" ht="12.8" customHeight="1">
-      <c r="A341" s="20"/>
-      <c r="B341" s="21"/>
-      <c r="C341" s="17"/>
-      <c r="D341" s="21"/>
-      <c r="E341" s="17"/>
-      <c r="F341" s="21"/>
-      <c r="G341" s="17"/>
-      <c r="H341" s="21"/>
-      <c r="I341" s="21"/>
-      <c r="J341" s="21"/>
-      <c r="K341" s="21"/>
-      <c r="L341" s="21"/>
-      <c r="M341" s="21"/>
-      <c r="N341" s="21"/>
-      <c r="O341" s="22"/>
-    </row>
-    <row r="342" ht="12.8" customHeight="1">
-      <c r="A342" s="20"/>
-      <c r="B342" s="21"/>
-      <c r="C342" s="17"/>
-      <c r="D342" s="21"/>
-      <c r="E342" s="17"/>
-      <c r="F342" s="21"/>
-      <c r="G342" s="17"/>
-      <c r="H342" s="21"/>
-      <c r="I342" s="21"/>
-      <c r="J342" s="21"/>
-      <c r="K342" s="21"/>
-      <c r="L342" s="21"/>
-      <c r="M342" s="21"/>
-      <c r="N342" s="21"/>
-      <c r="O342" s="22"/>
-    </row>
-    <row r="343" ht="12.8" customHeight="1">
-      <c r="A343" s="20"/>
-      <c r="B343" s="21"/>
-      <c r="C343" s="17"/>
-      <c r="D343" s="21"/>
-      <c r="E343" s="17"/>
-      <c r="F343" s="21"/>
-      <c r="G343" s="17"/>
-      <c r="H343" s="21"/>
-      <c r="I343" s="21"/>
-      <c r="J343" s="21"/>
-      <c r="K343" s="21"/>
-      <c r="L343" s="21"/>
-      <c r="M343" s="21"/>
-      <c r="N343" s="21"/>
-      <c r="O343" s="22"/>
-    </row>
-    <row r="344" ht="12.8" customHeight="1">
-      <c r="A344" s="20"/>
-      <c r="B344" s="21"/>
-      <c r="C344" s="17"/>
-      <c r="D344" s="21"/>
-      <c r="E344" s="17"/>
-      <c r="F344" s="21"/>
-      <c r="G344" s="17"/>
-      <c r="H344" s="21"/>
-      <c r="I344" s="21"/>
-      <c r="J344" s="21"/>
-      <c r="K344" s="21"/>
-      <c r="L344" s="21"/>
-      <c r="M344" s="21"/>
-      <c r="N344" s="21"/>
-      <c r="O344" s="22"/>
-    </row>
-    <row r="345" ht="12.8" customHeight="1">
-      <c r="A345" s="20"/>
-      <c r="B345" s="21"/>
-      <c r="C345" s="17"/>
-      <c r="D345" s="21"/>
-      <c r="E345" s="17"/>
-      <c r="F345" s="21"/>
-      <c r="G345" s="17"/>
-      <c r="H345" s="21"/>
-      <c r="I345" s="21"/>
-      <c r="J345" s="21"/>
-      <c r="K345" s="21"/>
-      <c r="L345" s="21"/>
-      <c r="M345" s="21"/>
-      <c r="N345" s="21"/>
-      <c r="O345" s="22"/>
-    </row>
-    <row r="346" ht="12.8" customHeight="1">
-      <c r="A346" s="20"/>
-      <c r="B346" s="21"/>
-      <c r="C346" s="17"/>
-      <c r="D346" s="21"/>
-      <c r="E346" s="17"/>
-      <c r="F346" s="21"/>
-      <c r="G346" s="17"/>
-      <c r="H346" s="21"/>
-      <c r="I346" s="21"/>
-      <c r="J346" s="21"/>
-      <c r="K346" s="21"/>
-      <c r="L346" s="21"/>
-      <c r="M346" s="21"/>
-      <c r="N346" s="21"/>
-      <c r="O346" s="22"/>
-    </row>
-    <row r="347" ht="12.8" customHeight="1">
-      <c r="A347" s="20"/>
-      <c r="B347" s="21"/>
-      <c r="C347" s="17"/>
-      <c r="D347" s="21"/>
-      <c r="E347" s="17"/>
-      <c r="F347" s="21"/>
-      <c r="G347" s="17"/>
-      <c r="H347" s="21"/>
-      <c r="I347" s="21"/>
-      <c r="J347" s="21"/>
-      <c r="K347" s="21"/>
-      <c r="L347" s="21"/>
-      <c r="M347" s="21"/>
-      <c r="N347" s="21"/>
-      <c r="O347" s="22"/>
-    </row>
-    <row r="348" ht="12.8" customHeight="1">
-      <c r="A348" s="20"/>
-      <c r="B348" s="21"/>
-      <c r="C348" s="17"/>
-      <c r="D348" s="21"/>
-      <c r="E348" s="17"/>
-      <c r="F348" s="21"/>
-      <c r="G348" s="17"/>
-      <c r="H348" s="21"/>
-      <c r="I348" s="21"/>
-      <c r="J348" s="21"/>
-      <c r="K348" s="21"/>
-      <c r="L348" s="21"/>
-      <c r="M348" s="21"/>
-      <c r="N348" s="21"/>
-      <c r="O348" s="22"/>
-    </row>
-    <row r="349" ht="12.8" customHeight="1">
-      <c r="A349" s="20"/>
-      <c r="B349" s="21"/>
-      <c r="C349" s="17"/>
-      <c r="D349" s="21"/>
-      <c r="E349" s="17"/>
-      <c r="F349" s="21"/>
-      <c r="G349" s="17"/>
-      <c r="H349" s="21"/>
-      <c r="I349" s="21"/>
-      <c r="J349" s="21"/>
-      <c r="K349" s="21"/>
-      <c r="L349" s="21"/>
-      <c r="M349" s="21"/>
-      <c r="N349" s="21"/>
-      <c r="O349" s="22"/>
-    </row>
-    <row r="350" ht="12.8" customHeight="1">
-      <c r="A350" s="20"/>
-      <c r="B350" s="21"/>
-      <c r="C350" s="17"/>
-      <c r="D350" s="21"/>
-      <c r="E350" s="17"/>
-      <c r="F350" s="21"/>
-      <c r="G350" s="17"/>
-      <c r="H350" s="21"/>
-      <c r="I350" s="21"/>
-      <c r="J350" s="21"/>
-      <c r="K350" s="21"/>
-      <c r="L350" s="21"/>
-      <c r="M350" s="21"/>
-      <c r="N350" s="21"/>
-      <c r="O350" s="22"/>
-    </row>
-    <row r="351" ht="12.8" customHeight="1">
-      <c r="A351" s="20"/>
-      <c r="B351" s="21"/>
-      <c r="C351" s="17"/>
-      <c r="D351" s="21"/>
-      <c r="E351" s="17"/>
-      <c r="F351" s="21"/>
-      <c r="G351" s="17"/>
-      <c r="H351" s="21"/>
-      <c r="I351" s="21"/>
-      <c r="J351" s="21"/>
-      <c r="K351" s="21"/>
-      <c r="L351" s="21"/>
-      <c r="M351" s="21"/>
-      <c r="N351" s="21"/>
-      <c r="O351" s="22"/>
-    </row>
-    <row r="352" ht="12.8" customHeight="1">
-      <c r="A352" s="20"/>
-      <c r="B352" s="21"/>
-      <c r="C352" s="17"/>
-      <c r="D352" s="21"/>
-      <c r="E352" s="17"/>
-      <c r="F352" s="21"/>
-      <c r="G352" s="17"/>
-      <c r="H352" s="21"/>
-      <c r="I352" s="21"/>
-      <c r="J352" s="21"/>
-      <c r="K352" s="21"/>
-      <c r="L352" s="21"/>
-      <c r="M352" s="21"/>
-      <c r="N352" s="21"/>
-      <c r="O352" s="22"/>
-    </row>
-    <row r="353" ht="12.8" customHeight="1">
-      <c r="A353" s="20"/>
-      <c r="B353" s="21"/>
-      <c r="C353" s="17"/>
-      <c r="D353" s="21"/>
-      <c r="E353" s="17"/>
-      <c r="F353" s="21"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="21"/>
-      <c r="I353" s="21"/>
-      <c r="J353" s="21"/>
-      <c r="K353" s="21"/>
-      <c r="L353" s="21"/>
-      <c r="M353" s="21"/>
-      <c r="N353" s="21"/>
-      <c r="O353" s="22"/>
-    </row>
-    <row r="354" ht="12.8" customHeight="1">
-      <c r="A354" s="20"/>
-      <c r="B354" s="21"/>
-      <c r="C354" s="17"/>
-      <c r="D354" s="21"/>
-      <c r="E354" s="17"/>
-      <c r="F354" s="21"/>
-      <c r="G354" s="17"/>
-      <c r="H354" s="21"/>
-      <c r="I354" s="21"/>
-      <c r="J354" s="21"/>
-      <c r="K354" s="21"/>
-      <c r="L354" s="21"/>
-      <c r="M354" s="21"/>
-      <c r="N354" s="21"/>
-      <c r="O354" s="22"/>
-    </row>
-    <row r="355" ht="12.8" customHeight="1">
-      <c r="A355" s="20"/>
-      <c r="B355" s="21"/>
-      <c r="C355" s="17"/>
-      <c r="D355" s="21"/>
-      <c r="E355" s="17"/>
-      <c r="F355" s="21"/>
-      <c r="G355" s="17"/>
-      <c r="H355" s="21"/>
-      <c r="I355" s="21"/>
-      <c r="J355" s="21"/>
-      <c r="K355" s="21"/>
-      <c r="L355" s="21"/>
-      <c r="M355" s="21"/>
-      <c r="N355" s="21"/>
-      <c r="O355" s="22"/>
-    </row>
-    <row r="356" ht="12.8" customHeight="1">
-      <c r="A356" s="20"/>
-      <c r="B356" s="21"/>
-      <c r="C356" s="17"/>
-      <c r="D356" s="21"/>
-      <c r="E356" s="17"/>
-      <c r="F356" s="21"/>
-      <c r="G356" s="17"/>
-      <c r="H356" s="21"/>
-      <c r="I356" s="21"/>
-      <c r="J356" s="21"/>
-      <c r="K356" s="21"/>
-      <c r="L356" s="21"/>
-      <c r="M356" s="21"/>
-      <c r="N356" s="21"/>
-      <c r="O356" s="22"/>
-    </row>
-    <row r="357" ht="12.8" customHeight="1">
-      <c r="A357" s="20"/>
-      <c r="B357" s="21"/>
-      <c r="C357" s="17"/>
-      <c r="D357" s="21"/>
-      <c r="E357" s="17"/>
-      <c r="F357" s="21"/>
-      <c r="G357" s="21"/>
-      <c r="H357" s="21"/>
-      <c r="I357" s="21"/>
-      <c r="J357" s="21"/>
-      <c r="K357" s="21"/>
-      <c r="L357" s="21"/>
-      <c r="M357" s="21"/>
-      <c r="N357" s="21"/>
-      <c r="O357" s="22"/>
-    </row>
-    <row r="358" ht="12.8" customHeight="1">
-      <c r="A358" s="20"/>
-      <c r="B358" s="21"/>
-      <c r="C358" s="17"/>
-      <c r="D358" s="21"/>
-      <c r="E358" s="17"/>
-      <c r="F358" s="21"/>
-      <c r="G358" s="21"/>
-      <c r="H358" s="21"/>
-      <c r="I358" s="21"/>
-      <c r="J358" s="21"/>
-      <c r="K358" s="21"/>
-      <c r="L358" s="21"/>
-      <c r="M358" s="21"/>
-      <c r="N358" s="21"/>
-      <c r="O358" s="22"/>
-    </row>
-    <row r="359" ht="12.8" customHeight="1">
-      <c r="A359" s="20"/>
-      <c r="B359" s="21"/>
-      <c r="C359" s="17"/>
-      <c r="D359" s="21"/>
-      <c r="E359" s="17"/>
-      <c r="F359" s="21"/>
-      <c r="G359" s="21"/>
-      <c r="H359" s="21"/>
-      <c r="I359" s="21"/>
-      <c r="J359" s="21"/>
-      <c r="K359" s="21"/>
-      <c r="L359" s="21"/>
-      <c r="M359" s="21"/>
-      <c r="N359" s="21"/>
-      <c r="O359" s="22"/>
-    </row>
-    <row r="360" ht="12.8" customHeight="1">
-      <c r="A360" s="20"/>
-      <c r="B360" s="21"/>
-      <c r="C360" s="17"/>
-      <c r="D360" s="21"/>
-      <c r="E360" s="17"/>
-      <c r="F360" s="21"/>
-      <c r="G360" s="21"/>
-      <c r="H360" s="21"/>
-      <c r="I360" s="21"/>
-      <c r="J360" s="21"/>
-      <c r="K360" s="21"/>
-      <c r="L360" s="21"/>
-      <c r="M360" s="21"/>
-      <c r="N360" s="21"/>
-      <c r="O360" s="22"/>
-    </row>
-    <row r="361" ht="12.8" customHeight="1">
-      <c r="A361" s="20"/>
-      <c r="B361" s="21"/>
-      <c r="C361" s="17"/>
-      <c r="D361" s="21"/>
-      <c r="E361" s="17"/>
-      <c r="F361" s="21"/>
-      <c r="G361" s="21"/>
-      <c r="H361" s="21"/>
-      <c r="I361" s="21"/>
-      <c r="J361" s="21"/>
-      <c r="K361" s="21"/>
-      <c r="L361" s="21"/>
-      <c r="M361" s="21"/>
-      <c r="N361" s="21"/>
-      <c r="O361" s="22"/>
-    </row>
-    <row r="362" ht="12.8" customHeight="1">
-      <c r="A362" s="20"/>
-      <c r="B362" s="21"/>
-      <c r="C362" s="17"/>
-      <c r="D362" s="21"/>
-      <c r="E362" s="17"/>
-      <c r="F362" s="21"/>
-      <c r="G362" s="21"/>
-      <c r="H362" s="21"/>
-      <c r="I362" s="21"/>
-      <c r="J362" s="21"/>
-      <c r="K362" s="21"/>
-      <c r="L362" s="21"/>
-      <c r="M362" s="21"/>
-      <c r="N362" s="21"/>
-      <c r="O362" s="22"/>
-    </row>
-    <row r="363" ht="12.8" customHeight="1">
-      <c r="A363" s="20"/>
-      <c r="B363" s="21"/>
-      <c r="C363" s="17"/>
-      <c r="D363" s="21"/>
-      <c r="E363" s="17"/>
-      <c r="F363" s="21"/>
-      <c r="G363" s="21"/>
-      <c r="H363" s="21"/>
-      <c r="I363" s="21"/>
-      <c r="J363" s="21"/>
-      <c r="K363" s="21"/>
-      <c r="L363" s="21"/>
-      <c r="M363" s="21"/>
-      <c r="N363" s="21"/>
-      <c r="O363" s="22"/>
-    </row>
-    <row r="364" ht="12.8" customHeight="1">
-      <c r="A364" s="20"/>
-      <c r="B364" s="21"/>
-      <c r="C364" s="17"/>
-      <c r="D364" s="21"/>
-      <c r="E364" s="17"/>
-      <c r="F364" s="21"/>
-      <c r="G364" s="21"/>
-      <c r="H364" s="21"/>
-      <c r="I364" s="21"/>
-      <c r="J364" s="21"/>
-      <c r="K364" s="21"/>
-      <c r="L364" s="21"/>
-      <c r="M364" s="21"/>
-      <c r="N364" s="21"/>
-      <c r="O364" s="22"/>
-    </row>
-    <row r="365" ht="12.8" customHeight="1">
-      <c r="A365" s="20"/>
-      <c r="B365" s="21"/>
-      <c r="C365" s="17"/>
-      <c r="D365" s="21"/>
-      <c r="E365" s="17"/>
-      <c r="F365" s="21"/>
-      <c r="G365" s="21"/>
-      <c r="H365" s="21"/>
-      <c r="I365" s="21"/>
-      <c r="J365" s="21"/>
-      <c r="K365" s="21"/>
-      <c r="L365" s="21"/>
-      <c r="M365" s="21"/>
-      <c r="N365" s="21"/>
-      <c r="O365" s="22"/>
-    </row>
-    <row r="366" ht="12.8" customHeight="1">
-      <c r="A366" s="20"/>
-      <c r="B366" s="21"/>
-      <c r="C366" s="17"/>
-      <c r="D366" s="21"/>
-      <c r="E366" s="17"/>
-      <c r="F366" s="21"/>
-      <c r="G366" s="21"/>
-      <c r="H366" s="21"/>
-      <c r="I366" s="21"/>
-      <c r="J366" s="21"/>
-      <c r="K366" s="21"/>
-      <c r="L366" s="21"/>
-      <c r="M366" s="21"/>
-      <c r="N366" s="21"/>
-      <c r="O366" s="22"/>
-    </row>
-    <row r="367" ht="12.8" customHeight="1">
-      <c r="A367" s="20"/>
-      <c r="B367" s="21"/>
-      <c r="C367" s="17"/>
-      <c r="D367" s="21"/>
-      <c r="E367" s="17"/>
-      <c r="F367" s="21"/>
-      <c r="G367" s="21"/>
-      <c r="H367" s="21"/>
-      <c r="I367" s="21"/>
-      <c r="J367" s="21"/>
-      <c r="K367" s="21"/>
-      <c r="L367" s="21"/>
-      <c r="M367" s="21"/>
-      <c r="N367" s="21"/>
-      <c r="O367" s="22"/>
-    </row>
-    <row r="368" ht="12.8" customHeight="1">
-      <c r="A368" s="20"/>
-      <c r="B368" s="21"/>
-      <c r="C368" s="17"/>
-      <c r="D368" s="21"/>
-      <c r="E368" s="17"/>
-      <c r="F368" s="21"/>
-      <c r="G368" s="21"/>
-      <c r="H368" s="21"/>
-      <c r="I368" s="21"/>
-      <c r="J368" s="21"/>
-      <c r="K368" s="21"/>
-      <c r="L368" s="21"/>
-      <c r="M368" s="21"/>
-      <c r="N368" s="21"/>
-      <c r="O368" s="22"/>
-    </row>
-    <row r="369" ht="12.8" customHeight="1">
-      <c r="A369" s="20"/>
-      <c r="B369" s="21"/>
-      <c r="C369" s="17"/>
-      <c r="D369" s="21"/>
-      <c r="E369" s="17"/>
-      <c r="F369" s="21"/>
-      <c r="G369" s="21"/>
-      <c r="H369" s="21"/>
-      <c r="I369" s="21"/>
-      <c r="J369" s="21"/>
-      <c r="K369" s="21"/>
-      <c r="L369" s="21"/>
-      <c r="M369" s="21"/>
-      <c r="N369" s="21"/>
-      <c r="O369" s="22"/>
-    </row>
-    <row r="370" ht="12.8" customHeight="1">
-      <c r="A370" s="20"/>
-      <c r="B370" s="21"/>
-      <c r="C370" s="17"/>
-      <c r="D370" s="21"/>
-      <c r="E370" s="17"/>
-      <c r="F370" s="21"/>
-      <c r="G370" s="21"/>
-      <c r="H370" s="21"/>
-      <c r="I370" s="21"/>
-      <c r="J370" s="21"/>
-      <c r="K370" s="21"/>
-      <c r="L370" s="21"/>
-      <c r="M370" s="21"/>
-      <c r="N370" s="21"/>
-      <c r="O370" s="22"/>
-    </row>
-    <row r="371" ht="12.8" customHeight="1">
-      <c r="A371" s="20"/>
-      <c r="B371" s="21"/>
-      <c r="C371" s="17"/>
-      <c r="D371" s="21"/>
-      <c r="E371" s="17"/>
-      <c r="F371" s="21"/>
-      <c r="G371" s="21"/>
-      <c r="H371" s="21"/>
-      <c r="I371" s="21"/>
-      <c r="J371" s="21"/>
-      <c r="K371" s="21"/>
-      <c r="L371" s="21"/>
-      <c r="M371" s="21"/>
-      <c r="N371" s="21"/>
-      <c r="O371" s="22"/>
-    </row>
-    <row r="372" ht="12.8" customHeight="1">
-      <c r="A372" s="20"/>
-      <c r="B372" s="21"/>
-      <c r="C372" s="17"/>
-      <c r="D372" s="21"/>
-      <c r="E372" s="17"/>
-      <c r="F372" s="21"/>
-      <c r="G372" s="21"/>
-      <c r="H372" s="21"/>
-      <c r="I372" s="21"/>
-      <c r="J372" s="21"/>
-      <c r="K372" s="21"/>
-      <c r="L372" s="21"/>
-      <c r="M372" s="21"/>
-      <c r="N372" s="21"/>
-      <c r="O372" s="22"/>
-    </row>
-    <row r="373" ht="12.8" customHeight="1">
-      <c r="A373" s="20"/>
-      <c r="B373" s="21"/>
-      <c r="C373" s="17"/>
-      <c r="D373" s="21"/>
-      <c r="E373" s="17"/>
-      <c r="F373" s="21"/>
-      <c r="G373" s="21"/>
-      <c r="H373" s="21"/>
-      <c r="I373" s="21"/>
-      <c r="J373" s="21"/>
-      <c r="K373" s="21"/>
-      <c r="L373" s="21"/>
-      <c r="M373" s="21"/>
-      <c r="N373" s="21"/>
-      <c r="O373" s="22"/>
-    </row>
-    <row r="374" ht="12.8" customHeight="1">
-      <c r="A374" s="20"/>
-      <c r="B374" s="21"/>
-      <c r="C374" s="17"/>
-      <c r="D374" s="21"/>
-      <c r="E374" s="17"/>
-      <c r="F374" s="21"/>
-      <c r="G374" s="21"/>
-      <c r="H374" s="21"/>
-      <c r="I374" s="21"/>
-      <c r="J374" s="21"/>
-      <c r="K374" s="21"/>
-      <c r="L374" s="21"/>
-      <c r="M374" s="21"/>
-      <c r="N374" s="21"/>
-      <c r="O374" s="22"/>
-    </row>
-    <row r="375" ht="12.8" customHeight="1">
-      <c r="A375" s="20"/>
-      <c r="B375" s="21"/>
-      <c r="C375" s="17"/>
-      <c r="D375" s="21"/>
-      <c r="E375" s="17"/>
-      <c r="F375" s="21"/>
-      <c r="G375" s="21"/>
-      <c r="H375" s="21"/>
-      <c r="I375" s="21"/>
-      <c r="J375" s="21"/>
-      <c r="K375" s="21"/>
-      <c r="L375" s="21"/>
-      <c r="M375" s="21"/>
-      <c r="N375" s="21"/>
-      <c r="O375" s="22"/>
-    </row>
-    <row r="376" ht="12.8" customHeight="1">
-      <c r="A376" s="20"/>
-      <c r="B376" s="21"/>
-      <c r="C376" s="17"/>
-      <c r="D376" s="21"/>
-      <c r="E376" s="17"/>
-      <c r="F376" s="21"/>
-      <c r="G376" s="21"/>
-      <c r="H376" s="21"/>
-      <c r="I376" s="21"/>
-      <c r="J376" s="21"/>
-      <c r="K376" s="21"/>
-      <c r="L376" s="21"/>
-      <c r="M376" s="21"/>
-      <c r="N376" s="21"/>
-      <c r="O376" s="22"/>
-    </row>
-    <row r="377" ht="12.8" customHeight="1">
-      <c r="A377" s="20"/>
-      <c r="B377" s="21"/>
-      <c r="C377" s="17"/>
-      <c r="D377" s="21"/>
-      <c r="E377" s="17"/>
-      <c r="F377" s="21"/>
-      <c r="G377" s="21"/>
-      <c r="H377" s="21"/>
-      <c r="I377" s="21"/>
-      <c r="J377" s="21"/>
-      <c r="K377" s="21"/>
-      <c r="L377" s="21"/>
-      <c r="M377" s="21"/>
-      <c r="N377" s="21"/>
-      <c r="O377" s="22"/>
-    </row>
-    <row r="378" ht="12.8" customHeight="1">
-      <c r="A378" s="20"/>
-      <c r="B378" s="21"/>
-      <c r="C378" s="17"/>
-      <c r="D378" s="21"/>
-      <c r="E378" s="17"/>
-      <c r="F378" s="21"/>
-      <c r="G378" s="21"/>
-      <c r="H378" s="21"/>
-      <c r="I378" s="21"/>
-      <c r="J378" s="21"/>
-      <c r="K378" s="21"/>
-      <c r="L378" s="21"/>
-      <c r="M378" s="21"/>
-      <c r="N378" s="21"/>
-      <c r="O378" s="22"/>
-    </row>
-    <row r="379" ht="12.8" customHeight="1">
-      <c r="A379" s="20"/>
-      <c r="B379" s="21"/>
-      <c r="C379" s="17"/>
-      <c r="D379" s="21"/>
-      <c r="E379" s="17"/>
-      <c r="F379" s="21"/>
-      <c r="G379" s="21"/>
-      <c r="H379" s="21"/>
-      <c r="I379" s="21"/>
-      <c r="J379" s="21"/>
-      <c r="K379" s="21"/>
-      <c r="L379" s="21"/>
-      <c r="M379" s="21"/>
-      <c r="N379" s="21"/>
-      <c r="O379" s="22"/>
-    </row>
-    <row r="380" ht="12.8" customHeight="1">
-      <c r="A380" s="23"/>
-      <c r="B380" s="24"/>
-      <c r="C380" s="24"/>
-      <c r="D380" s="24"/>
-      <c r="E380" s="25"/>
-      <c r="F380" s="24"/>
-      <c r="G380" s="24"/>
-      <c r="H380" s="24"/>
-      <c r="I380" s="24"/>
-      <c r="J380" s="24"/>
-      <c r="K380" s="24"/>
-      <c r="L380" s="24"/>
-      <c r="M380" s="24"/>
-      <c r="N380" s="24"/>
-      <c r="O380" s="26"/>
+        <f>SUM(N221,,I221,J221,K221,L221,M221)</f>
+        <v>3408</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>

--- a/tests/test_parsing.xlsx
+++ b/tests/test_parsing.xlsx
@@ -61,7 +61,23 @@
     <t>Evie Delarosa</t>
   </si>
   <si>
-    <t>dan.taylor@rediffmail.com</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>dan.taylor@rediffmail.com;;cos@</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>rediffmail.com</t>
+    </r>
   </si>
   <si>
     <t>Osiris Webster</t>
@@ -169,7 +185,7 @@
     <t>Kobe Peck</t>
   </si>
   <si>
-    <t>uc5semub3428tym98a@ymail.com</t>
+    <t>uc5semub3428tym98a@ymail.com;zas@nromalna</t>
   </si>
   <si>
     <t>Crystal Rosario</t>
@@ -214,7 +230,7 @@
     <t>Miguel Lowery</t>
   </si>
   <si>
-    <t>yxu5zetwias4@rediffmail.com</t>
+    <t>yxu5zetwias4@rediffmail.com;normalnie@cos</t>
   </si>
   <si>
     <t>Estelle Cisneros</t>
@@ -1070,7 +1086,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1095,6 +1111,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1254,7 +1276,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1331,6 +1353,7 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -10775,6 +10798,16 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" location="" tooltip="" display="rediffmail.com"/>
+    <hyperlink ref="G5" r:id="rId2" location="" tooltip="" display="rediffmail.com"/>
+    <hyperlink ref="G6" r:id="rId3" location="" tooltip="" display="rediffmail.com"/>
+    <hyperlink ref="G7" r:id="rId4" location="" tooltip="" display="rediffmail.com"/>
+    <hyperlink ref="G8" r:id="rId5" location="" tooltip="" display="rediffmail.com"/>
+    <hyperlink ref="G9" r:id="rId6" location="" tooltip="" display="rediffmail.com"/>
+    <hyperlink ref="G10" r:id="rId7" location="" tooltip="" display="rediffmail.com"/>
+    <hyperlink ref="G11" r:id="rId8" location="" tooltip="" display="rediffmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
